--- a/finetuning/it_datasets/qa_dataset/qa_it_la goulette_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_la goulette_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,71 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great cafe, check out Melody Cafe located at R8G6+7F3 Melody Cafe, La Goulette. This top-rated destination is perfect for cafe lovers and offers a range of cafe services to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website at https://www.google.com/maps/place/Melody+Caf%C3%A9/data=!4m7!3m6!1s0x12fd4b0bc4a3ed97:0x253da55a526d026e!8m2!3d36.8256335!4d10.3111769!16s%2Fg%2F11rtc8r1_l!19sChIJl-2jxAtL_RIRbgJtUlqlPSU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 242 995.</t>
+          <t>Melody Café is a local café located in La Goulette, Tunisia. This café offers its customers a wide range of food options. It also has extended work hours, from 7:00 am to 11:00 pm. Melody Café is closed on Fridays and Saturdays.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in La Goulette that offers a range of cafe services and is open from 7:00 AM to 11:00 PM?</t>
+          <t>Day Plan:
+Morning: Explore the historical and charming streets of La Goulette.
+Mid-Morning: Indulge in local flavors at Restaurant Djerbien The House - lHwsh, known for its authentic Tunisian cuisine.
+Midday: Visit the picturesque Statue of Habib Bourguiba, a landmark commemorating the first president of Tunisia.
+Afternoon: Relax and rejuvenate at L'antica pizzeria, a culinary haven specializing in mouthwatering Neapolitan-style pizzas.
+Evening: Embrace the vibrant atmosphere of White &amp; Gold Sensation, a highly-rated discotheque offering a unique and unforgettable experience.
+Night: Head over to Wet Flamingo, a 4.2-rated bar renowned for its cocktails, ambiance, and lively clientele.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Lella Garbia** is a highly-rated cafe located in La Goulette with a focus on coffee and other beverages. The cafe is easily accessible and conveniently located in the heart of the city. With a 5.0 rating and positive reviews, Lella Garbia is well-received by visitors and locals alike.
+Restaurant Djerbien The House - lHwsh is a highly-rated restaurant located in La Goulette, Tunisia, boasting a 4.3-star rating. It specializes in traditional Tunisian cuisine and offers a cozy ambiance. The menu includes a range of dishes, including couscous, succulent meats, and flavorful breads. The restaurant is conveniently situated at 43 Av. Franklin Roosevelt, with coordinates (36.820006583268, 10.308868098217).
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -778,14 +842,71 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a cup of coffee with a bite to eat, check out Let's Drive Coffee Shop located at 1 Av. Hedi Chaker, La Goulette 2060.
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 36.815875813745, 10.303725297704. For more details, visit their website or call them at 98 372 509.</t>
+          <t>Let's Drive Coffee Shop is located in La Goulette, Tunisia, at coordinates (36.815875813745, 10.303725297704). It is open from 6AM to 10PM and offers a variety of coffee and tea drinks. The shop is also a popular spot for breakfast and lunch, with a menu that includes sandwiches, salads, and pastries.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated Cafe with a wide variety of options in La Goulette?</t>
+          <t>Day Plan:
+Morning: Explore the charming landmarks of La Goulette, such as the picturesque La Goulette Plage for coastal views and Goulette Shiping Cruise for insights into the town's maritime history.
+Mid-Morning: Stroll through Artisanat Aschi, a fascinating Arts and Crafts Museum, to discover traditional Tunisian handicrafts and immerse yourself in the local culture.
+Midday: Indulge in a culinary adventure at L'antica pizzeria, renowned for its authentic Neapolitan-style pizzas, delighting your taste buds with the flavors of La Goulette.
+Afternoon: Embark on a relaxing escape at Astoria Coffee, a cozy teahouse known for its warm ambiance, where you can savor a variety of teas and pastries.
+Evening: Experience the vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque, where you can dance and mingle with locals, immersing yourself in the energetic atmosphere.
+Night: Unwind and rejuvenate at Le Manoir, a delightful bar lounge, where you can sip on refreshing drinks and engage in captivating conversations, ending your day on a soothing note.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.
+Restaurant Le Cordoue is a renowned dining destination located at 13 Av. Franklin Roosevelt in La Goulette. This esteemed establishment boasts a rating of 4.4 stars based on the experiences of its satisfied patrons. Open daily from 11 am to 11:30 pm, the restaurant invites diners to savor its culinary delights in a warm and welcoming atmosphere.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -895,14 +1016,71 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant, check out Restaurant Djerbien The House - lHwsh located at 43 Av. Franklin Roosevelt, La Goulette.
-This popular destination offers a range of Restaurant options and is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. 
-It's open during these hours: 12:30-22:30, but closed on lundis. To get there, use these GPS coordinates: 36.820006583268, 10.308868098217. For more details, visit their website at https://facebook.com/ElHoucheLaGoulette or call them at 28 413 413.</t>
+          <t>Restaurant Djerbien The House - lHwsh is a highly-rated restaurant located in La Goulette, Tunisia, boasting a 4.3-star rating. It specializes in traditional Tunisian cuisine and offers a cozy ambiance. The menu includes a range of dishes, including couscous, succulent meats, and flavorful breads. The restaurant is conveniently situated at 43 Av. Franklin Roosevelt, with coordinates (36.820006583268, 10.308868098217).</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant offering a variety of dining options in La Goulette?</t>
+          <t>Day Plan:
+Morning: Explore the charming town of La Goulette, stopping by the picturesque beach and vibrant atmosphere.
+Mid-Morning: Visit the La Goulette Casino, a historic bus stop that offers a unique glimpse into the past.
+Midday: Savor delectable local cuisine at Poisson D'argent, a renowned seafood restaurant that offers a tantalizing menu.
+Afternoon: Immerse yourself in history and culture at Artisanat Aschi, an Arts and Crafts Museum showcasing Tunisia's rich heritage.
+Evening: As the sun sets, take a leisurely stroll along La Goulette Plage, a beach shop offering a wide range of souvenirs and local products.
+Night: Dance the night away at White &amp; Gold Sensation, a renowned discotheque that promises an unforgettable evening filled with music and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Istanbul Cafe, located in La Goulette, is a cafe with a rating of 4.3 stars based on 3 reviews. It is open from 6:00 AM to midnight, and offers a variety of services, including food and drinks. The cafe is located at 36.814552814786 latitude and 10.301428102672 longitude.
+L'Aquarius is a 4.5-star restaurant located in La Goulette, Tunisia. It offers a variety of seafood and meat dishes, and is known for its succulent food and excellent service. The restaurant is open from 12pm to 11pm every day, and is located at 02 bis Rte de La Goulette.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1182,78 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great bistro, check out Vin sur Vin located at 20 Rue Ali Bach. This top-rated destination is perfect for Bistro lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more details, visit their website or call them at 53 270 000.</t>
+          <t>Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated bistro in La Goulette with an extensive menu selection?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the charming streets of La Goulette
+**Mid-Morning:**
+- Savor a tantalizing coffee and delectable treats at Salon de the Massaya
+**Midday:**
+- Indulge in a delightful seafood meal at Restaurant Mossli
+**Afternoon:**
+- Visit the Artisanat Aschi Museum to admire traditional Tunisian handicrafts
+**Evening:**
+- Experience the lively ambiance of La Goulette Plage while enjoying a refreshing drink
+**Night:**
+- Immerse yourself in the history and significance of the La Goulette Ship Monument</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.
+**Quedamos** is a 4.5-star rated restaurant located in La Goulette, Tunis.
+With 8 reviews, Quedamos offers a cozy dining experience on Avenue Franklin Roosevelt. It opens from 11.00 AM - 11.00 PM every day and is accessible via phone at +216 29 462 516.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1359,71 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great dining experience, check out Restaurant Waywa located at R884+R86 Restaurant Waywa, Av. Franklin Roosevelt, La Goulette. This top-rated restaurant is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.8171268, 10.3054433. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Waywa/data=!4m7!3m6!1s0x12fd4b1cfdf26b69:0x9e2272ece5937e5a!8m2!3d36.8170356!4d10.3057719!16s%2Fg%2F11gbnvdwz3!19sChIJaWvy_RxL_RIRWn6T5exyIp4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 524 477.</t>
+          <t>Restaurant Waywa, a highly rated (4.2/5) eatery in La Goulette, Tunis, is open 24 hours a day. The restaurant specializes in seafood dishes, with "poisson" and "prix" being among the most frequently mentioned keywords in customer reviews. Conveniently located near the intersection of R884 and R86, Restaurant Waywa offers a dining experience that combines delicious food, a welcoming atmosphere, and prime accessibility.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a top-rated restaurant with a diverse menu open 24/7, accessible via GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring La Goulette by visiting the charming tourist destination with its picturesque beach and lively atmosphere.
+Mid-Morning: Trying local cuisine at Restaurant Mossli, a seafood restaurant renowned for its delectable offerings.
+Midday: Visiting the Artisanat Aschi Arts and Crafts Museum to appreciate the diverse traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork.
+Afternoon: Enjoying recreational activities at Sam's Beach La Goulette, indulging in hot chocolates, crepes, and teas while relishing the relaxing atmosphere and friendly service.
+Evening: Participating in the cultural immersion at La Gare Maritime La Goulette by taking a guided tour to learn about the region's maritime history and cultural significance.
+Night: Experiencing the vibrant nightlife at Wet Flamingo, a highly-rated bar known for its cocktails, lively ambiance, and trendy clientele.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe des delices is a cafe located at 57 Av. Mohamed 5, La Goulette, Tunisia. It is open from 6:00 AM to 12:00 AM and is rated 5.0 out of 5 stars on Google. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe also has a friendly staff and a comfortable atmosphere.
+Restaurant Chez BARHOUM is a highly-rated restaurant located in La Goulette, Tunisia. Known for its excellent dining experience, it offers a wide range of culinary delights to satisfy even the most discerning palate. With its convenient location at coordinates (36.8275081, 10.3125504), the establishment invites patrons to immerse themselves in a gastronomic journey.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1230,14 +1533,71 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out restaurant la paella located at restaurant la paella, casino, La Goulette 2060. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-01:00, but closed on [ ]. To get there, use these GPS coordinates: 36.8220926, 10.3112338. To contact, call them at 21 171 717.</t>
+          <t>Restaurant "La Paella" is a popular dining destination in La Goulette, known for its delicious tapas and vibrant atmosphere. It boasts a high rating of 4.4 based on 26 reviews and features authentic Mediterranean cuisine in a charming setting.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you experience highly-rated dining options with a convenient location and extended hours?</t>
+          <t>Day Plan:
+Morning: Explore Port La Goulette, the main port of Tunisia, offering fascinating views of the Mediterranean and a glimpse into the bustling maritime activity.
+Mid-Morning: Visit the nearby La Goulette Market, a vibrant hub of local culture, where you can browse authentic Tunisian handicrafts, spices, and traditional clothing.
+Midday: Savor a delightful seafood lunch at Restaurant STAMBALI, renowned for its fresh catches and delectable culinary creations.
+Afternoon: Immerse yourself in the captivating history and culture of La Goulette by exploring the captivating Artisanat Aschi Arts and Crafts Museum, showcasing an array of traditional Tunisian art forms, including pottery, textiles, and intricate woodwork.
+Evening: Take a leisurely stroll along La Goulette Plage, a picturesque beach offering stunning views of the Mediterranean Sea and inviting you to unwind amidst the serene ambiance.
+Night: Indulge in the vibrant nightlife of La Goulette at White &amp; Gold Sensation, a highly-rated discotheque where you can dance the night away to lively music and immerse yourself in the energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Yasmine is located in La Goulette, Tunisia. It is a popular cafe that serves a variety of drinks and snacks. The cafe is located at 36.854049683015, 10.260930317576 and is open from 07:00-21:00.
+La Spigola is a 4-star rated restaurant located in La Goulette, Tunisia. It is open from 12:00 pm to 1:00 am and is known for its Italian cuisine, especially its seafood dishes. The restaurant has 495 reviews, with many customers praising the quality of the food, the wine selection, and the service. La Spigola is a popular destination for both locals and tourists, and it offers a great dining experience in a beautiful setting.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1699,78 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated dining destination, visit Leblebi chez Naceur (lblby) located at 35 Av. Franklin Roosevelt, La Goulette. This restaurant serves up a range of delectable dishes, earning it a well-deserved rating of 4.5. With rave reviews highlighting its value for money, Leblebi chez Naceur (lblby) is a must-try spot. It's open from 12:00-05:00 during the week. For more details, visit their website at https://www.google.com/maps/place/Leblebi+chez+Naceur+%28%D9%84%D8%A8%D9%84%D8%A7%D8%A8%D9%8A%29%E2%80%AD/data=!4m7!3m6!1s0x12fd4b4843e854cb:0xd4b14ca459f85841!8m2!3d36.8192715!4d10.3079783!16s%2Fg%2F11n0697v0r!19sChIJy1ToQ0hL_RIRQVj4WaRMsdQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Leblebi chez Naceur, a restaurant located at 35 Av. Franklin Roosevelt in La Goulette, Tunisia, specializes in traditional Tunisian cuisine. With a rating of 4.5 out of 5 based on 26 reviews, it's a popular spot for locals and tourists alike. The restaurant is open from 12:00 pm to 5:00 pm and is known for its affordable prices and delicious food.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated dining spot in La Goulette, known for its excellent value for money?</t>
+          <t>Day Plan:
+Morning:
+- Embark on a guided tour of Goulette Village Harbor, marveling at the picturesque views and learning about its intriguing history.
+Mid-Morning:
+- Immerse yourself in the vibrant history and culture of Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian artistry.
+Midday:
+- Indulge in a delectable seafood lunch at Restaurant STAMBALI, renowned for its freshness and authentic flavors.
+Afternoon:
+- Bask in the sun and enjoy the pristine waters of Plage La Goulette, where you can unwind, swim, or indulge in water sports.
+Evening:
+- Take a leisurely stroll through the charming streets of La Goulette, exploring the quaint shops and soaking in the local ambiance.
+Night:
+- Conclude your day with a memorable dining experience at HEKAYA, where you can savor traditional Tunisian cuisine in a cozy and elegant setting.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Mazaj Cafe is a cafe located in La Goulette, Tunis, Tunisia. The cafe has a 4.1-star rating on Google and is open from 6:00 AM to 1:00 AM. Mazaj Cafe serves coffee, tea, and pastries. The cafe is located at the following coordinates: (36.823081683105, 10.30961397621).
+HEKAYA is a 4.7-star restaurant in la goulette, Tunisia. The restaurant offers a traditional Tunisian cuisine experience in a lovely setting. The restaurant is open every day and is closed on all public holidays.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1880,71 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great cafe experience, check out Cafe Goletta located at R8F7+5FV Cafe Goletta, La Goulette. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.81825, 10.3052. For more details, visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ or call them at 21 759 284.</t>
+          <t>Cafe Goletta, located in La Goulette (Tunisia) with the coordinates (36.81825, 10.3052), is a highly-rated cafe with a 4.4 rating based on 21 reviews. The cafe is open from 7:00 AM to 11:00 PM and offers a range of services. Visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ for more information.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>What is the highly-rated cafe in La Goulette known for its exceptional cafe experience, located at GPS coordinates 36.81825, 10.3052?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the charming town of La Goulette. Stroll along the picturesque streets and take in the vibrant local life.
+Mid-Morning: Indulge in a delightful culinary experience at Restaurant STAMBALI. Savor authentic seafood dishes while enjoying the warm and inviting ambiance.
+Midday: Head to the La Goulette Plage and soak up the Mediterranean sun on the pristine beach. Take a refreshing dip in the crystal-clear waters or engage in thrilling water sports.
+Afternoon: Visit the Artisanat Aschi, an Arts and Crafts Museum, to discover the vibrant artistry of La Goulette. Admire the intricate pottery, textiles, and woodwork that reflect the region's rich cultural heritage.
+Evening: Embark on a guided tour of the impressive Goulette Village Harbor, marveling at the grandeur of this historic port. Learn about its maritime significance and admire the stunning yachts and boats docked within.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation, a highly rated discotheque in La Goulette. Dance the night away to pulsating beats and enjoy an unforgettable evening of entertainment.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.
+Restaurant Waywa, a highly rated (4.2/5) eatery in La Goulette, Tunis, is open 24 hours a day. The restaurant specializes in seafood dishes, with "poisson" and "prix" being among the most frequently mentioned keywords in customer reviews. Conveniently located near the intersection of R884 and R86, Restaurant Waywa offers a dining experience that combines delicious food, a welcoming atmosphere, and prime accessibility.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1565,12 +2050,71 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Cafe servant des chocolats chauds, check out Sam'S BEACH LA GOULETTE at 30 Av. De La Republique, La Goulette. This must-visit spot offers a range of categories including Cafe servant des chocolats chauds, Creperie, and Salon de the and has a rating of 4.3. It's open during these hours: 07:00-20:30, but closed on . To get there use these GPS coordinates: (36.816176388793, 10.306199300245) or call them at 24 170 701 for more details.</t>
+          <t>Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe servant des chocolats chauds in La Goulette that offers a 4.3 rating and serves as a must-visit spot?</t>
+          <t>Day Plan:
+Morning: Explore the colorful streets of La Goulette and visit the unique Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts like pottery, textiles, jewelry, and woodwork.
+Mid-Morning: Head to Vin sur Vin, a cozy bistro known for its wine and cheese pairings, to savor the local flavors and ambiance while mingling with locals and tourists.
+Midday: Indulge in a delightful Mediterranean seafood lunch at the highly-rated Le P. Marin, a popular restaurant with a cozy atmosphere and a focus on fresh ingredients and friendly service.
+Afternoon: Explore Plage La Goulette, a picturesque beach known for its beautiful sandy shores, clear waters, and stunning views. Relax on the beach, swim, or engage in various water sports.
+Evening: As the sun sets, visit the vibrant White &amp; Gold Sensation discotheque for a unique and unforgettable experience, immersing yourself in the local nightlife scene. Dance the night away and enjoy the lively atmosphere.
+Night: Head to Wet Flamingo, a 4.2-star rated bar renowned for its cocktails, vibrant ambiance, and friendly clientele. Sip on expertly crafted drinks and soak up the energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, at the coordinates (36.821202134027, 10.309845129925), Salon De The Casablanca is a cafe with a 4.4-star rating. It's open from 7:15 AM to 1:00 AM, every day of the week.
+**Le P. Marin** is a popular restaurant located at R894+FXV Le P. Marin, La Goulette. Known for its great ambiance and cozy atmosphere, it offers a delightful dining experience with a focus on Mediterranean and seafood cuisine. The restaurant has received positive reviews for its fresh ingredients, delicious food, and friendly service. Open 24 hours a day, Le P. Marin is a convenient and welcoming spot to enjoy a meal in the heart of La Goulette.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1676,14 +2220,71 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant, check out Chicago La Goulette located at 2 Av. Franklin Roosevelt, La Goulette 2060. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 36.816262806215, 10.304961376965. For more details, visit their website at https://www.google.com/maps/place/Chicago+La+Goulette/data=!4m7!3m6!1s0x12fd4b02ad299cd7:0x90c086a5d810b040!8m2!3d36.8170692!4d10.3053236!16s%2Fg%2F11gdz49_jk!19sChIJ15wprQJL_RIRQLAQ2KWGwJA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 502 249.</t>
+          <t>Chicago La Goulette is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood and meats. The restaurant is located at 2 Av. Franklin Roosevelt and is open from 12:00 to 00:00. It is closed on Sundays. The restaurant has 16 reviews and an average rating of 4.3 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>If you're exploring La Goulette and craving a highly-rated dining experience, what Restaurant in La Goulette stands out with its exceptional rating of 4.3?</t>
+          <t>Day Plan:
+Morning: Explore the La Goulette Village Harbor, a charming hotel complex with stunning views of the Mediterranean Sea.
+Mid-Morning: Visit the Artisanat Aschi Arts and Crafts Museum to discover traditional Tunisian handicrafts, such as pottery, textiles, and woodwork.
+Midday: Enjoy a delicious seafood lunch at Restaurant Mossli, known for its fresh and flavorful dishes.
+Afternoon: Relax and soak up the sun at La Goulette Plage, an idyllic beach with a wide range of amenities.
+Evening: Take a guided tour of the La Goulette Ship Monument, a renowned historical landmark with cultural significance.
+Night: Experience the vibrant nightlife of Le Manoir, a cozy bar lounge with a welcoming atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).
+La Corniche is a restaurant located in La Goulette, Tunisia. Situated near the waterfront with coordinates (36.8171992, 10.3035367), the restaurant offers a dining experience with a rating of 4.3 out of 5. Its operating hours are from 11am to 11pm daily.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1789,12 +2390,71 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in la goulette seeking a delicious meal, be sure to visit Restaurant La Guitoune situated at 17 Av. Franklin Roosevelt, La Goulette. This highly rated restaurant, with a 4.6 rating, is a haven for Restaurant enthusiasts. It offers a wide variety of options to choose from, guaranteeing a satisfying dining experience. The restaurant's hours of operation are from 11:00-23:00, except on days when it's closed. To get to the restaurant, utilize the GPS coordinates (36.818333303937, 10.307128182755). For more information, feel free to contact them at 24 813 503.</t>
+          <t>Restaurant La Guitoune, a highly-rated restaurant located in La Goulette, Tunisia, with a rating of 4.6 stars on Google reviews, is a great place to enjoy a meal. Open from 11:00 AM to 11:00 PM, Restaurant La Guitoune offers a variety of dishes and is known for its excellent service. With its convenient location at 17 Av. Franklin Roosevelt, La Goulette, and its phone number 24 813 503, it's easy to find and contact the restaurant for reservations or inquiries.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a wide variety of options and convenient location in La Goulette?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historic Goulette Village Harbor (a 4.5-star hotel complex offering ferry services and hotel accommodations).
+**Mid-Morning:** Visit the impressive Artisanat Aschi (Arts and Crafts Museum) to admire traditional Tunisian handicrafts.
+**Midday:** Try local cuisine at Restaurant Mossli, known for its delicious seafood dishes.
+**Afternoon:** Relax with a hot chocolate and a crepe at Sam's Beach La Goulette, a popular cafe near the beach.
+**Evening:** Explore the historical La Goulette Ship Monument, a significant landmark with a 5.0 rating.
+**Night:** Dance the night away at White &amp; Gold Sensation, a highly rated discotheque with a unique atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Mazaj Cafe is a cafe located in La Goulette, Tunis, Tunisia. The cafe has a 4.1-star rating on Google and is open from 6:00 AM to 1:00 AM. Mazaj Cafe serves coffee, tea, and pastries. The cafe is located at the following coordinates: (36.823081683105, 10.30961397621).
+Restaurant Djerbien The House - lHwsh is a highly-rated restaurant located in La Goulette, Tunisia, boasting a 4.3-star rating. It specializes in traditional Tunisian cuisine and offers a cozy ambiance. The menu includes a range of dishes, including couscous, succulent meats, and flavorful breads. The restaurant is conveniently situated at 43 Av. Franklin Roosevelt, with coordinates (36.820006583268, 10.308868098217).
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1900,12 +2560,81 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Restaurant Le Cordoue located at 13 Av. Franklin Roosevelt, La Goulette 2060. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-23:30, but closed on []. To get there, use these GPS coordinates: 36.8170198, 10.3057291. For more details, visit their website or call them at 71 735 476.</t>
+          <t>Restaurant Le Cordoue is a renowned dining destination located at 13 Av. Franklin Roosevelt in La Goulette. This esteemed establishment boasts a rating of 4.4 stars based on the experiences of its satisfied patrons. Open daily from 11 am to 11:30 pm, the restaurant invites diners to savor its culinary delights in a warm and welcoming atmosphere.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly-rated dining destination with a wide selection of restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette's historical treasures at Artisanat Aschi, showcasing traditional Tunisian handicrafts.
+Mid-Morning: Indulge in the delectable seafood dishes at Restaurant Mossli, renowned for its friendly service.
+Midday: Immerse yourself in La Goulette's maritime heritage by visiting the La Goulette Ship Monument.
+Afternoon: Stroll through the scenic La Goulette Plage, where you can enjoy sunbathing or swimming.
+Evening: Experience the lively atmosphere at Vin sur Vin, a popular bistro known for its cozy ambiance and wine and cheese pairings.
+Night: Dance the night away at White &amp; Gold Sensation, a highly rated discotheque in La Goulette.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.
+Restaurant Djerbien The House - lHwsh is a restaurant located at the address 43 Av. Franklin Roosevelt, La Goulette, Tunisia. The restaurant is open from 12:30pm to 10:30pm, and is closed on Mondays. The restaurant offers Tunisian cuisine, and has a rating of 4.3 out of 5 stars on Google Maps. The restaurant's main category is Restaurant, and its other categories include Restaurant. The restaurant's phone number is 28 413 413.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2007,13 +2736,71 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Mazaj cafe located at R8C6+V7Q Mazaj cafe, Av. Pasteur, La Goulette.
-This top-rated destination is perfect for Cafe lovers. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 36.823081683105, 10.30961397621.</t>
+          <t>Mazaj Cafe is a cafe located in La Goulette, Tunis, Tunisia. The cafe has a 4.1-star rating on Google and is open from 6:00 AM to 1:00 AM. Mazaj Cafe serves coffee, tea, and pastries. The cafe is located at the following coordinates: (36.823081683105, 10.30961397621).</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated café in La Goulette that is a popular destination for café enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the "Statue of Habib Bourguiba" for its historical significance and panoramic views.
+Mid-Morning: Visit Artisanat Aschi to immerse yourself in traditional Tunisian handicrafts and take home unique souvenirs.
+Midday: Indulge in a delightful seafood lunch at Restaurant Mossli, known for its authentic flavors and friendly service.
+Afternoon: Stroll along La Goulette Plage to soak up the sun, enjoy the sea breeze, and find beach essentials.
+Evening: Take a leisurely walk along Port La Goulette, admiring the boats and experiencing the maritime atmosphere.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation discotheque, known for its energetic ambiance and lively music.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Melody Cafe is a cafe located in La Goulette, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 7:00 am to 11:00 pm, and is closed on Sundays. Melody Cafe is located at the coordinates 36.8171992, 10.3035367.
+In the heart of La Goulette, Platinium Restaurant welcomes you with a warm and friendly atmosphere. Located at 4 Av. Franklin Roosevelt, the restaurant invites you to savor delicious dishes in a convivial setting. With a rating of 4.2 and 52 reviews, Platinium Restaurant is a popular destination for locals and visitors alike.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2119,12 +2906,72 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great Cafe, check out EL FIRMA COFFEE SHOP located at 90 Av. Franklin Roosevelt, La Goulette 2060. This top-rated destination offers a range of Cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-01:00. To get there, use these GPS coordinates: 36.822835810866, 10.31136096004. For more details, visit their website at https://www.google.com/maps/place/EL+FIRMA+COFFEE+SHOP/data=!4m7!3m6!1s0x12fd4b7b42fa6b65:0x52074b6263fc88f4!8m2!3d36.8228658!4d10.3116849!16s%2Fg%2F11jpp056q5!19sChIJZWv6QntL_RIR9Ij8Y2JLB1I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 544 925.</t>
+          <t>EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in La Goulette, known for its exceptional Cafe options and conveniently located for visitors?</t>
+          <t>Day Plan:
+Morning: Exploring the picturesque streets of "La Goulette" to soak in the local culture and admire the unique architecture.
+Mid-Morning: Trying local cuisine at Restaurant Chez BARHOUM, known for its exquisite culinary delights that cater to discerning palates.
+Midday: Visiting the impressive Statue of Habib Bourguiba to marvel at its grandeur and learn about the historical significance of Tunisia's first president.
+Afternoon: Enjoying a relaxing stroll along La Goulette Plage, admiring the scenic coastline and taking in the fresh sea breeze.
+Evening: Pampering yourself with a rejuvenating massage at Astoria Coffee, renowned for its warm ambiance and soothing atmosphere.
+Night: Experiencing the vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque that promises a unique and unforgettable party experience.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Melody Café is a local café located in La Goulette, Tunisia. This café offers its customers a wide range of food options. It also has extended work hours, from 7:00 am to 11:00 pm. Melody Café is closed on Fridays and Saturdays.
+Restaurant Chez BARHOUM is a highly-rated restaurant located in La Goulette, Tunisia. Known for its excellent dining experience, it offers a wide range of culinary delights to satisfy even the most discerning palate. With its convenient location at coordinates (36.8275081, 10.3125504), the establishment invites patrons to immerse themselves in a gastronomic journey.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2230,14 +3077,78 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a satisfying meal, check out quedamos located at R884+R47 quedamos, Av. Franklin Roosevelt, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.820285616825, 10.309149813982. For more details, visit their website at https://www.google.com/maps/place/quedamos/data=!4m7!3m6!1s0x12fd4b58daf8083f:0x9e5f8d8c42d035de!8m2!3d36.8170461!4d10.3053106!16s%2Fg%2F11hz2kzxyz!19sChIJPwj42lhL_RIR3jXQQoyNX54?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 462 516.</t>
+          <t>**Quedamos** is a 4.5-star rated restaurant located in La Goulette, Tunis.
+With 8 reviews, Quedamos offers a cozy dining experience on Avenue Franklin Roosevelt. It opens from 11.00 AM - 11.00 PM every day and is accessible via phone at +216 29 462 516.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>For a top-rated culinary experience in La Goulette, where can you find a highly acclaimed restaurant with a 4.5 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+**Mid-Morning:**
+- Visit the La Goulette Ship Monument for insights into the maritime history of La Goulette.
+**Midday:**
+- Indulge in local cuisine at **Restaurant Mossli**, known for its delicious seafood dishes.
+**Afternoon:**
+- Relax with a scenic walk along Plage La Goulette, enjoying the beautiful sandy beaches and clear waters.
+**Evening:**
+- Experience the vibrant nightlife at White &amp; Gold Sensation discotheque, offering a unique and highly rated entertainment experience.
+**Night:**
+- Participate in a guided boat tour of La Goulette Port, marveling at the bustling waterfront and charming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Drive Coffee Shop is located in La Goulette, Tunisia, at coordinates (36.815875813745, 10.303725297704). It is open from 6AM to 10PM and offers a variety of coffee and tea drinks. The shop is also a popular spot for breakfast and lunch, with a menu that includes sandwiches, salads, and pastries.
+La Corniche is a restaurant located in La Goulette, Tunisia. Situated near the waterfront with coordinates (36.8171992, 10.3035367), the restaurant offers a dining experience with a rating of 4.3 out of 5. Its operating hours are from 11am to 11pm daily.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2343,14 +3254,71 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delightful Cafe, head over to Melody Cafe situated at R8G6+7F3, La Goulette. 
-This highly-rated spot boasts a rating of 4.9 and is open from 07:00-23:00 all days of the week. 
-For further details, call them at 53 242 995.</t>
+          <t>Melody Cafe is a cafe located in La Goulette, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 7:00 am to 11:00 pm, and is closed on Sundays. Melody Cafe is located at the coordinates 36.8171992, 10.3035367.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café with extended hours in La Goulette?</t>
+          <t>Day Plan:
+Morning: Start the day with a guided tour of Artisanat Aschi, a renowned museum showcasing traditional Tunisian handicrafts.
+Mid-Morning: Stroll through the picturesque La Goulette beach and enjoy the Mediterranean's captivating views.
+Midday: Indulge in the vibrant flavors of Tunisian cuisine at HEKAYA, an authentic restaurant offering a delightful dining experience.
+Afternoon: Dive into the history and culture of La Goulette by visiting the "Statue of Habib Bourguiba," a monumental symbol of the city.
+Evening: Embark on a romantic sunset cruise, departing from La Gare Maritime La Goulette, to witness the city's coastal beauty.
+Night: Conclude the day with a lively atmosphere at Vin sur Vin, a popular bistro renowned for its cozy ambiance and delectable wine and cheese pairings.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).
+HEKAYA is a 4.7-star restaurant in la goulette, Tunisia. The restaurant offers a traditional Tunisian cuisine experience in a lovely setting. The restaurant is open every day and is closed on all public holidays.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2452,12 +3420,71 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, check out La Corniche located at R884+MF6 La Corniche, Rue El Amir Abdelkader, La Goulette. This restaurant is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on [not provided]. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website at [not provided] or call them at [not provided].</t>
+          <t>La Corniche is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located on the waterfront, and it offers stunning views of the Mediterranean Sea. La Corniche is highly rated by its customers, and it is a popular destination for both locals and tourists.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Question: If you're in La Goulette searching for a highly recommended restaurant with diverse food options, where can you go that's known for its top-notch dining experience?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette Village Harbor
+Mid-Morning: Visit Artisanat Aschi for local crafts
+Midday: Enjoy lunch at Restaurant "La Paella"
+Afternoon: Relax on La Goulette Plage
+Evening: Take a guided tour of **Statue of Habib Bourguiba**
+Night: Experience cultural immersion at White &amp; Gold Sensation</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, at the coordinates (36.821202134027, 10.309845129925), Salon De The Casablanca is a cafe with a 4.4-star rating. It's open from 7:15 AM to 1:00 AM, every day of the week.
+Restaurant "La Paella" is a popular dining destination in La Goulette, known for its delicious tapas and vibrant atmosphere. It boasts a high rating of 4.4 based on 26 reviews and features authentic Mediterranean cuisine in a charming setting.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2559,12 +3586,77 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great place to sip on some tea, head to Astoria Coffee on Av. Franklin Roosevelt. This top-rated teahouse offers a cozy ambiance and a wide range of teas to choose from. With a rating of 4.2, it's a must-visit spot for tea lovers. It's open from 07:00-01:00 daily. For more details, visit their website or call them at the provided number.</t>
+          <t>Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a cozy teahouse with a wide selection of teas and a high rating in the heart of La Goulette?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical and picturesque Port La Goulette, a major port and fishing center.
+**Mid-Morning:**
+* Visit Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+**Midday:**
+* Enjoy a delicious seafood lunch at Restaurant Mossli, known for its authentic Tunisian flavors.
+**Afternoon:**
+* Take a refreshing walk along the beautiful Plage La Goulette, renowned for its sandy beaches and clear waters.
+**Evening:**
+* Experience the vibrant atmosphere at Wet Flamingo, a renowned bar offering delectable cocktails and an energetic ambiance.
+**Night:**
+* Indulge in a 24-hour pizza feast at Matelot, a local favorite offering mouthwatering pizzas with a 4.3-star rating.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe amine la goulette is a cafe located in la goulette, Tunisia. It is open from 09:00 to 20:00 from Monday to Saturday and is closed on Sundays. It is rated 4.5 stars on Google and has 2 reviews. It has a featured image and a facebook page. The cafe offers a variety of food and drinks, and is located at 35 Av. Habib Bourghuiba, La Goulette.
+La Corniche is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located on the waterfront, and it offers stunning views of the Mediterranean Sea. La Corniche is highly rated by its customers, and it is a popular destination for both locals and tourists.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2670,12 +3762,71 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated cafe, check out Salon De The Casablanca located at R895+J4F Salon De The Casablanca, Av. Franklin Roosevelt, La Goulette. This destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:15-01:00. To get there, use these GPS coordinates: 36.821202134027, 10.309845129925. For more details, visit their website or call them at 22 700 609.</t>
+          <t>Located in La Goulette, at the coordinates (36.821202134027, 10.309845129925), Salon De The Casablanca is a cafe with a 4.4-star rating. It's open from 7:15 AM to 1:00 AM, every day of the week.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Which top-rated café located in La Goulette offers a wide selection of café options and boasts a high 4.4 rating?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette Port, a bustling ferry terminal offering a glimpse into the town's maritime heritage.
+Mid-Morning: Try local cuisine at La Goulette Plage, a beach shop offering a wide range of snacks and beverages.
+Midday: Visit Statue of Habib Bourguiba, a commemorative monument honoring the first president of Tunisia.
+Afternoon: Relax with a tranquil stroll through La Goulette Fontaine, admiring the beautiful fountain and its serene ambiance.
+Evening: Indulge in a delightful dinner at Restaurant STAMBALI, a highly-rated seafood restaurant offering a wide selection of fresh, locally caught seafood dishes.
+Night: Dance the night away at White &amp; Gold Sensation, a discotheque renowned for its lively atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Yasmine is located in La Goulette, Tunisia. It is a popular cafe that serves a variety of drinks and snacks. The cafe is located at 36.854049683015, 10.260930317576 and is open from 07:00-21:00.
+Restaurant Le Cordoue is a renowned dining destination located at 13 Av. Franklin Roosevelt in La Goulette. This esteemed establishment boasts a rating of 4.4 stars based on the experiences of its satisfied patrons. Open daily from 11 am to 11:30 pm, the restaurant invites diners to savor its culinary delights in a warm and welcoming atmosphere.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2777,12 +3928,71 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in La Goulette and looking for a great cafe experience, check out Istanbul Cafe located at R882+572 Residence Asma, Boulevard, Av. du 1er Juin 1955. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.814552814786, 10.301428102672.</t>
+          <t>Istanbul Cafe, located in La Goulette, is a cafe with a rating of 4.3 stars based on 3 reviews. It is open from 6:00 AM to midnight, and offers a variety of services, including food and drinks. The cafe is located at 36.814552814786 latitude and 10.301428102672 longitude.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly-rated cafe with a wide selection and is open late?</t>
+          <t>Day Plan:
+Morning: Exploring **La Goulette Plage** for its beautiful sandy beaches and clear waters.
+Mid-Morning: Trying local cuisine at **Sam's Beach La Goulette** for a variety of hot chocolates, crepes, and teas.
+Midday: Visiting the **Artisanat Aschi** Arts and Crafts Museum for a look at traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork.
+Afternoon: Enjoying a relaxing afternoon with a guided tour of **La Goulette Port**, a bustling maritime port with a marina and various amenities.
+Evening: Participating in a culinary event at **The NINETY-NINE**, a pizzeria offering a variety of pizzas and other Italian dishes.
+Night: Experiencing the vibrant nightlife at **White &amp; Gold Sensation**, a highly rated discotheque known for its unique atmosphere and clientele.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.
+La Mer is a restaurant in La Goulette, Tunisia, with a rating of 3.1 out of 5 based on 232 reviews. It is located at coordinates (36.8212687, 10.310061) and is open from 12:00 PM to 00:00 AM every day. The restaurant serves a variety of dishes, including seafood, couscous, and grilled meats. It also has a terrace with views of the Mediterranean Sea.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2884,12 +4094,71 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Cafe, Salon de the Massaya is the place to be! Located at R8F5+HX2 Salon de the Massaya, Casino, La Goulette, this cafe is a must-visit spot for all cafe lovers. Open from 05:00-00:00, this destination offers a range of Cafe options to choose from, ensuring a memorable experience. With a rating of 4.7, it's a spot you wouldn't want to miss. For more details, visit their website at  or call them at</t>
+          <t>Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>If you're seeking an exceptional cafe experience in La Goulette, what top-rated destination, located at R8F5+HX2 Salon de the Massaya, boasts a remarkable 4.7 rating?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette Shiping Cruise
+Mid-Morning: Visit the Artisanat Aschi Arts and Crafts Museum
+Midday: Try local cuisine at Restaurant Djerbien The House - lHwsh
+Afternoon: Enjoy scenic views at La Goulette
+Evening: Relax with drinks at Vin sur Vin
+Night: Dance the night away at White &amp; Gold Sensation</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Drive Coffee Shop is located in La Goulette, Tunisia, at coordinates (36.815875813745, 10.303725297704). It is open from 6AM to 10PM and offers a variety of coffee and tea drinks. The shop is also a popular spot for breakfast and lunch, with a menu that includes sandwiches, salads, and pastries.
+Restaurant Djerbien The House - lHwsh is a highly-rated restaurant located in La Goulette, Tunisia, boasting a 4.3-star rating. It specializes in traditional Tunisian cuisine and offers a cozy ambiance. The menu includes a range of dishes, including couscous, succulent meats, and flavorful breads. The restaurant is conveniently situated at 43 Av. Franklin Roosevelt, with coordinates (36.820006583268, 10.308868098217).
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2999,12 +4268,72 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great cafe, check out Cafe amine la goulette located at 35 Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 36.852658203269, 10.261756773229. For more details, visit their website at https://m.facebook.com/Caf%C3%A9-Amine-la-goulette-112366092223467/ or call them at 51 200 010.</t>
+          <t>Cafe amine la goulette is a cafe located in la goulette, Tunisia. It is open from 09:00 to 20:00 from Monday to Saturday and is closed on Sundays. It is rated 4.5 stars on Google and has 2 reviews. It has a featured image and a facebook page. The cafe offers a variety of food and drinks, and is located at 35 Av. Habib Bourghuiba, La Goulette.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where is the top-rated cafe with an impressive 4.5 rating located in La Goulette, offering an extensive selection of cafe options, and accessible via GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque beach of La Goulette, soak up the sun, and take a refreshing dip in the Mediterranean Sea.
+Mid-Morning: Visit Artisanat Aschi, the Arts and Crafts Museum, to discover the rich heritage of Tunisian handicrafts.
+Midday: Indulge in an authentic Tunisian lunch at Restaurant Mossli, known for its delectable seafood dishes.
+Afternoon: Take a leisurely stroll through the vibrant La Goulette Village Harbor, admiring the stunning Mediterranean views.
+Evening: Immerse yourself in the lively atmosphere of White &amp; Gold Sensation, a highly-rated discotheque.
+Night: Unwind with a relaxing nightcap at Le manoir, a popular bar lounge offering a sophisticated ambiance.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+In La goulette, on the coast of Zarzis, Tunisia, lies La goulette zarzis plage sonia. The restaurant offers a range of culinary delights and boasts a perfect rating of 5.0. The eatery is situated at the coordinates (33.5298945, 11.0882724), making it easily accessible. With a phone number of 52 610 175, reservations or inquiries can be made conveniently. The restaurant offers a warm and welcoming ambiance, perfect for a delightful dining experience.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3110,12 +4439,77 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Cafe REX La Goulette located at 54 Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-20:00. To get there, use these GPS coordinates: 36.81941339598, 10.306506329359. For more details, visit their website at https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=https://m.facebook.com/pages/category/Community/Caf%25C3%25A9-Cin%25C3%25A9ma-Rex-La-Goulette-1607397716187985/%3Flocale2%3Dfr_CA&amp;ved=2ahUKEwiesv27o9DvAhWKO-wKHS8YAHwQFjARegQILBAC&amp;usg=AOvVaw0iWepm5TLcNJ0ajlwDBf8A&amp;cshid=1616841424584</t>
+          <t>Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>What is the top-rated cafe in La Goulette with a 5.0 rating and a wide selection of cafe options?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore La Goulette Ship Monument, a historically significant landmark
+**Mid-Morning:**
+* Visit Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts
+**Midday:**
+* Try local cuisine at Restaurant STAMBALI, a 4.5-rated seafood restaurant
+**Afternoon:**
+* Relax at Sam's Beach La Goulette, a popular café renowned for its delicious hot chocolates
+**Evening:**
+* Take a walk along La Goulette Plage, a lively beach with stunning views
+**Night:**
+* Enjoy cocktails and a lively atmosphere at Wet Flamingo, a 4.2-star bar</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Melody Café is a local café located in La Goulette, Tunisia. This café offers its customers a wide range of food options. It also has extended work hours, from 7:00 am to 11:00 pm. Melody Café is closed on Fridays and Saturdays.
+Angelina La Goulette Restaurant &amp; Lounge is a restaurant located at 2 Av. Franklin Roosevelt, La Goulette. It's a popular spot for locals and tourists alike, offering a variety of dishes in a relaxed and friendly atmosphere. The restaurant is open from 12:00-00:00 every day, and it's closed on Sundays.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3217,14 +4611,71 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delightful Cafe, visit Cafe Yasmine at 45-51 Av. Habib Bourghuiba, La Goulette. 
-This highly-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-21:00. To get there, use these GPS coordinates: 36.854049683015, 10.260930317576. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Yasmine/data=!4m7!3m6!1s0x12fd4ba30a721033:0xcff5c35ba4f0601c!8m2!3d36.8213647!4d10.3078726!16s%2Fg%2F11h3kbjf7x!19sChIJMxByCqNL_RIRHGDwpFvD9c8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Yasmine is located in La Goulette, Tunisia. It is a popular cafe that serves a variety of drinks and snacks. The cafe is located at 36.854049683015, 10.260930317576 and is open from 07:00-21:00.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where's the highly-rated Cafe Yasmine located, offering a delightful Cafe experience in La Goulette?</t>
+          <t>Day Plan:
+Morning: Visit Artisanat Aschi, an Arts and Crafts Museum in La Goulette, to appreciate traditional Tunisian handicrafts.
+Mid-Morning: Explore the Goulette Village Harbor, a 4.5-star hotel complex in La Goulette, where you can witness the city's maritime history.
+Midday: Try local cuisine at Restaurant STAMBALI, a highly-rated seafood restaurant in La Goulette, for a delectable dining experience.
+Afternoon: Engage in outdoor activities at Sam's Beach La Goulette, a popular cafe known for its delicious hot chocolates, where you can relax and enjoy the ambiance.
+Evening: Visit White &amp; Gold Sensation, a discotheque in La Goulette, for a unique nightlife experience with a vibrant atmosphere.
+Night: Explore Astoria Cafe, a teahouse in La Goulette, known for its warm atmosphere and variety of teas, coffees, and pastries, to end the evening on a cozy note.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe amine la goulette is a cafe located in la goulette, Tunisia. It is open from 09:00 to 20:00 from Monday to Saturday and is closed on Sundays. It is rated 4.5 stars on Google and has 2 reviews. It has a featured image and a facebook page. The cafe offers a variety of food and drinks, and is located at 35 Av. Habib Bourghuiba, La Goulette.
+Resto al ahbab is a restaurant located in La Goulette, Tunisia. The is rated 4.0 and has 5 reviews. The main category is Restaurant and it offers a variety of dishes. The restaurant is located at the following address: 17 Av. Franklin Roosevelt, La Goulette. The coordinates are (36.818333303937, 10.307128182755).
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3330,12 +4781,71 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great Cafe, head to Cafe des delices at 57 Av. Mohamed 5, La Goulette. This top-rated spot has a rating of 5.0 and offers a cozy atmosphere perfect for coffee lovers. It's open daily from 06:00-00:00, so you can enjoy your favorite beverages whenever you like.</t>
+          <t>Cafe des delices is a cafe located at 57 Av. Mohamed 5, La Goulette, Tunisia. It is open from 6:00 AM to 12:00 AM and is rated 5.0 out of 5 stars on Google. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe also has a friendly staff and a comfortable atmosphere.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find Cafe des Delices, a top-rated, cozy cafe in La Goulette with extended hours?</t>
+          <t>Day Plan:
+Morning: Begin your day by exploring the historical significance of **La Goulette Ship Monument**.
+Mid-Morning: Indulge in the tantalizing flavors of local cuisine at **Restaurant Mossli**, renowned for its exceptional seafood dishes.
+Midday: Immerse yourself in the vibrant atmosphere of **Souk La Goulette**, experiencing the buzz of traditional Tunisian shopping.
+Afternoon: Seek relaxation and rejuvenation at **Astoria Coffee**, a cozy teahouse offering an inviting ambiance and delightful refreshments.
+Evening: Set sail for an enchanting Mediterranean cruise from **Terminal des Croisieres - La Goulette**, marveling at the stunning coastal scenery.
+Night: Head to **White &amp; Gold Sensation**, a captivating discotheque, to dance the night away and immerse yourself in the local nightlife.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Baba Azizi La Goulette is a cafe located in La Goulette, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 14 Av. Habib Bourghuiba, La Goulette and can be contacted at 20 335 001.
+La Spigola is a 4-star rated restaurant located in La Goulette, Tunisia. It is open from 12:00 pm to 1:00 am and is known for its Italian cuisine, especially its seafood dishes. The restaurant has 495 reviews, with many customers praising the quality of the food, the wine selection, and the service. La Spigola is a popular destination for both locals and tourists, and it offers a great dining experience in a beautiful setting.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3441,12 +4951,71 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated cafe, check out Cafe Baba Azizi La Goulette located at 14 Av. Habib Bourghuiba, La Goulette. This cafe is a must-visit spot for cafe lovers, with a rating of 5.0. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.852326615179, 10.261675720225. For more details, call them at 20 335 001.</t>
+          <t>Cafe Baba Azizi La Goulette is a cafe located in La Goulette, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 14 Av. Habib Bourghuiba, La Goulette and can be contacted at 20 335 001.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>If you're exploring La Goulette and craving a highly-rated cafe experience, where should you visit and why?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette Plage, a popular spot for swimming, sunbathing, and other water sports.
+Mid-Morning: Visit Goulette Shiping Cruise for a unique insight into the maritime history of La Goulette.
+Midday: Try local cuisine at Restaurant Le Cordoue, a renowned dining destination with a 4.4-star rating.
+Afternoon: Relax with a hot chocolate and crepe at Sam's Beach La Goulette, a popular cafe with a 4.3-star rating.
+Evening: Enjoy a delightful dinner at Restaurant Mossli, a seafood restaurant with a 4.4-star rating.
+Night: Experience the vibrant nightlife at Le Manoir, a cozy bar lounge with a 5.0-star rating.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Melody Cafe is a cafe located in La Goulette, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 7:00 am to 11:00 pm, and is closed on Sundays. Melody Cafe is located at the coordinates 36.8171992, 10.3035367.
+Restaurant Le Cordoue is a renowned dining destination located at 13 Av. Franklin Roosevelt in La Goulette. This esteemed establishment boasts a rating of 4.4 stars based on the experiences of its satisfied patrons. Open daily from 11 am to 11:30 pm, the restaurant invites diners to savor its culinary delights in a warm and welcoming atmosphere.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3548,12 +5117,81 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in **La Goulette** and looking for a top-rated cafe experience, head to **qhw@ 'm klthwm** located at **28 Av. De La Republique**. This must-visit spot offers a cozy ambiance with a rating of **5.0**. It's open **24 hours a day**, so you can enjoy your favorite coffee or tea anytime. To get there, use these GPS coordinates: **36.818358216581, 10.308094524487**.</t>
+          <t>**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a cozy cafe with a 5.0 rating, open 24 hours a day, nestled in the heart of La Goulette?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the charming streets of La Goulette. Visit the Goulette Village Harbor, a prime location with stunning waterfront views.
+Mid-Morning: Immerse yourself in the local culture at Artisanat Aschi, an Arts and Crafts Museum where you can admire traditional Tunisian handicrafts.
+Midday: Delight in an authentic culinary experience at Restaurant Le Cordoue, renowned for its Mediterranean cuisine.
+Afternoon: Spend the afternoon relaxing at La Goulette Plage, a beach shop offering various beach items. Take a leisurely stroll, sunbathe, or engage in water sports.
+Evening: Enjoy a captivating evening at Le Manoir, a bar lounge known for its cozy ambiance and friendly service. Engage in lively conversations over drinks.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation, a discotheque offering a unique and unforgettable atmosphere. Dance the night away and savor the energetic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.
+Restaurant Le Cordoue, located at 13 Av. Franklin Roosevelt, La Goulette 2060, is a top-rated (4.4 stars) restaurant. It offers a wide range of dining options, with an emphasis on Mediterranean cuisine. The restaurant is conveniently located near the La Goulette port, making it easily accessible from both land and sea.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3651,12 +5289,71 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in la goulette, Cafe Monique is a must-visit spot for Cafe lovers. Located at R895+XJF Cafe Monique, Av. De La Republique, La Goulette, this top-rated destination offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Monique/data=!4m7!3m6!1s0x12fd4b0128dec985:0x600855e42906a856!8m2!3d36.8198219!4d10.3089017!16s%2Fg%2F11svzrc0bw!19sChIJhcneKAFL_RIRVqgGKeRVCGA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where is the top-rated Cafe Monique located, and what makes it a must-visit spot for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Visit the Goulette Ship Monument, a renowned historical landmark with cultural significance.
+Mid-Morning: Explore the Arts and Crafts Museum (Artisanat Aschi) to delve into the rich tradition of Tunisian handicrafts.
+Midday: Try local cuisine at Restaurant les amis, known for its delectable Tunisian dishes, particularly seafood.
+Afternoon: Enjoy scenic views at La Goulette Plage, a beach shop offering a wide range of items and stunning views.
+Evening: Engage in outdoor activities like swimming or sunbathing at Sam's Beach La Goulette, renowned for its inviting atmosphere and delicious hot chocolates.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation, a highly rated discotheque known for its unique ambiance.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.
+Restaurant les amis is a highly-rated restaurant located in La Goulette, offering delectable Tunisian cuisine. With a rating of 4.2 stars and numerous positive reviews, this establishment is a must-visit for seafood enthusiasts, as "poisson" (fish) is frequently mentioned among the reviews. Situated at the coordinates (36.8191947, 10.3080254), Restaurant les amis is open daily from 11 AM to midnight, offering a convenient dining experience for locals and tourists alike.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3750,14 +5447,81 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Lella Garbia located at 019 Av. Franklin Roosevelt, La Goulette 2060. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.818619210654, 10.307419872986. For more details, visit their website at https://www.google.com/maps/place/Lella+Garbia/data=!4m7!3m6!1s0x12fd4bd69039e49d:0x400469d050c30b14!8m2!3d36.8187977!4d10.3074993!16s%2Fg%2F11vc366q3j!19sChIJneQ5kNZL_RIRFAvDUNBpBEA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Lella Garbia** is a highly-rated cafe located in La Goulette with a focus on coffee and other beverages. The cafe is easily accessible and conveniently located in the heart of the city. With a 5.0 rating and positive reviews, Lella Garbia is well-received by visitors and locals alike.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly-rated (5.0) destination with a wide selection of Cafe options, popular among Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Port La Goulette, a bustling maritime hub with customs, police, and tourism services.
+Mid-Morning: Visit the Artisanat Aschi Arts and Crafts Museum to admire traditional Tunisian pottery, textiles, jewelry, and woodwork.
+Midday: Indulge in a delicious seafood lunch at Restaurant Mossli, known for its friendly service and delectable dishes.
+Afternoon: Relax and enjoy scenic views at La Goulette Plage, a beach shop offering a wide range of beach essentials.
+Evening: Take a guided tour of the Statue of Habib Bourguiba, a commemorative monument honoring the first president of Tunisia.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque known for its unique ambiance.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.
+Station 24 -La Goulette is a restaurant located in la goulette, Tunisia. It is open 24 hours a day and has a rating of 5.0 out of 5 on Google Maps. The restaurant's phone number is 21 467 467 and its address is 92 Av. De La Republique, La Goulette 2060. The restaurant's main category is Restaurant and its coordinates are (36.820012341997, 10.309142490247).
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3863,12 +5627,77 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a good Restaurant, check out La Mer located at R8C6+F25 La Mer, La Goulette. This top-rated destination is perfect for food lovers and offers a range of cuisines to choose from. With a rating of 3.1, it's a must-visit spot. It's open during these hours: 12:00-00:00, and closed on . To get there, use these GPS coordinates: 36.8212687, 10.310061. For more details, call them at 21 644 611.</t>
+          <t>Discover La Mer, located in La Goulette (36.8212687, 10.310061), a renowned restaurant offering an array of culinary delights. With a rating of 3.1 based on 232 reviews, La Mer is open daily from 12:00-00:00, offering a special focus on seafood dishes.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with diverse cuisine options in La Goulette, located at GPS coordinates 36.8212687, 10.310061?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the bustling streets of "La Goulette," a charming town with a rich history.
+**Mid-Morning:**
+- Visit the Artisanat Aschi, an Arts and Crafts Museum, to discover traditional Tunisian handicrafts.
+**Midday:**
+- Savor local cuisine at Resto al ahbab, a highly-rated restaurant offering a variety of dishes.
+**Afternoon:**
+- Enjoy a leisurely walk along La Goulette Plage, the town's picturesque beach, and soak up the coastal atmosphere.
+**Evening:**
+- Visit the Goulette Village Harbor, a hotel complex with stunning views of the Mediterranean Sea.
+**Night:**
+- Experience the lively ambiance of Le Manoir, a bar lounge with a cozy ambiance and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Melody Café is a local café located in La Goulette, Tunisia. This café offers its customers a wide range of food options. It also has extended work hours, from 7:00 am to 11:00 pm. Melody Café is closed on Fridays and Saturdays.
+Resto al ahbab is a restaurant located in La Goulette, Tunisia. The is rated 4.0 and has 5 reviews. The main category is Restaurant and it offers a variety of dishes. The restaurant is located at the following address: 17 Av. Franklin Roosevelt, La Goulette. The coordinates are (36.818333303937, 10.307128182755).
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3974,12 +5803,71 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a Restaurant, check out La Mer located at  R8C6+F25 La Mer, La Goulette. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 3.1, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 36.8212687, 10.310061. For more details, visit their website at  or call them at 21 644 611.</t>
+          <t>La Mer is a restaurant in La Goulette, Tunisia, with a rating of 3.1 out of 5 based on 232 reviews. It is located at coordinates (36.8212687, 10.310061) and is open from 12:00 PM to 00:00 AM every day. The restaurant serves a variety of dishes, including seafood, couscous, and grilled meats. It also has a terrace with views of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>If you're craving a memorable dining experience while exploring La Goulette, which top-rated restaurant awaits your visit near the R8C6+F25 GPS coordinates offering an array of Restaurant options?</t>
+          <t>Day Plan:
+Morning: Exploring La Goulette Plage for beach essentials and enjoying the coastal ambiance.
+Mid-Morning: Indulging in a delectable breakfast at Sam's Beach La Goulette, renowned for its exceptional hot chocolates.
+Midday: Embarking on a guided tour of the Statue of Habib Bourguiba, a commemorative monument honoring Tunisia's first president.
+Afternoon: Trying local cuisine at Poisson D'argent, a highly acclaimed seafood restaurant offering a diverse menu and inviting ambiance.
+Evening: Strolling through the bustling streets of La Goulette, absorbing the vibrant atmosphere and immersing in the local culture.
+Night: Experiencing the lively ambiance of White &amp; Gold Sensation, a reputable discotheque renowned for its unique atmosphere and energetic music.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).
+Quedamos is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located at the coordinates (36.820285616825, 10.309149813982).
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4077,12 +5965,71 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Port La Goulette located at Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for Port maritime lovers and offers a range of Port maritime to choose from. With a rating of 3.4, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Port+La+Goulette/data=!4m7!3m6!1s0x12fd4afe1c55f7dd:0x6142abb884d982ab!8m2!3d36.8105759!4d10.303487!16s%2Fg%2F11_q3k7bn!19sChIJ3fdVHP5K_RIRq4LZhLirQmE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated spot for Port maritime enthusiasts near La Goulette?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette Port, a vibrant ferry terminal that serves as a gateway to Mediterranean adventures (36.8101017, 10.3059628).
+Mid-Morning: Indulge in the local cuisine at Restaurant Mossli, renowned for its delicious seafood dishes (17 Av. Franklin Roosevelt, La Goulette).
+Midday: Visit the La Goulette Ship Monument, an iconic landmark that symbolizes the town's rich history (Open 24/7).
+Afternoon: Enjoy the picturesque La Goulette Plage, a beach that offers a range of rentals and activities (36.8224029, 10.3129791).
+Evening: Participate in the lively atmosphere at White &amp; Gold Sensation, a discotheque that promises a unique and memorable experience (01 La Goulette Rd, 2016).
+Night: Unwind with a relaxing drink at Wet Flamingo, a popular bar known for its cocktails and friendly ambiance (Coordinates: (36.815462789831, 10.305610962712)).</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.
+**Le P. Marin** is a popular restaurant located at R894+FXV Le P. Marin, La Goulette. Known for its great ambiance and cozy atmosphere, it offers a delightful dining experience with a focus on Mediterranean and seafood cuisine. The restaurant has received positive reviews for its fresh ingredients, delicious food, and friendly service. Open 24 hours a day, Le P. Marin is a convenient and welcoming spot to enjoy a meal in the heart of La Goulette.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4180,12 +6127,81 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated tourist attraction, check out la goulette located at 13 Av. Franklin Roosevelt, La Goulette 2060. This popular spot is known for its stunning views and offers a variety of activities to choose from. With a rating of 4.5, it's a must-visit destination. To get there, you can use the GPS coordinates: 36.818369309115, 10.306994299159.</t>
+          <t>La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated tourist attraction in La Goulette, known for its breathtaking views and a wide range of activities?</t>
+          <t>Day Plan:
+Morning: Explore the charming La Goulette Village Harbor, a hotel complex that offers ferry services and stunning views of the Mediterranean Sea.
+Mid-Morning: Visit the nearby Goulette Neuve transportation service to plan your day's adventures and learn about local transportation options.
+Midday: Indulge in the authentic Tunisian cuisine at Restaurant STAMBALI, renowned for its delectable seafood dishes.
+Afternoon: Take a refreshing stroll along the beautiful La Goulette Plage, where you can soak up the coastal breeze and enjoy various beach activities.
+Evening: Experience a vibrant local market atmosphere at Goulette Neuve, where you can shop for unique souvenirs and traditional Tunisian crafts.
+Night: Head to the lively Wet Flamingo bar for an unforgettable nightlife experience, known for its signature cocktails and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.
+Restaurant Djerbien The House - lHwsh is a restaurant located at the address 43 Av. Franklin Roosevelt, La Goulette, Tunisia. The restaurant is open from 12:30pm to 10:30pm, and is closed on Mondays. The restaurant offers Tunisian cuisine, and has a rating of 4.3 out of 5 stars on Google Maps. The restaurant's main category is Restaurant, and its other categories include Restaurant. The restaurant's phone number is 28 413 413.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4291,14 +6307,78 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Poisson D'argent located at 41 Av. Franklin Roosevelt, La Goulette 2060. 
-This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: 12:00-23:30, but closed on none. To get there, use these GPS coordinates: 36.819907886358, 10.308764833169. For more details, visit their website at none or call them at 55 738 738.</t>
+          <t>Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find Poisson D'argent, a top-rated destination for Restaurant de fruits de mer?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic **Port La Goulette**, a bustling transportation hub and a gateway to the Mediterranean Sea. Marvel at its architectural beauty and appreciate its historical significance.
+**Mid-Morning:**
+* Visit the **Artisanat Aschi**, an Arts and Crafts Museum, to immerse yourself in traditional Tunisian handicrafts and witness the rich cultural heritage of La Goulette.
+**Midday:**
+* Savory lunch at **Restaurant Mossli**, renowned for its delicious seafood dishes and friendly ambiance, tantalizing your taste buds with authentic Mediterranean flavors.
+**Afternoon:**
+* Enjoy a relaxing stroll through **La Goulette Plage**, a well-stocked beach shop, where you can browse local items and soak up the vibrant atmosphere of the seaside town.
+**Evening:**
+* Explore **Melody Café**, a local gem offering a wide range of food options, where you can savor a delightful dinner while indulging in the local culinary traditions.
+**Night:**
+* Embark on a captivating evening experience at the centrally located **Le Manoir**, a cozy bar lounge, where you can unwind with a refreshing drink and engage in delightful conversations, immersing yourself in the vibrant nightlife of La Goulette.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Melody Café is a local café located in La Goulette, Tunisia. This café offers its customers a wide range of food options. It also has extended work hours, from 7:00 am to 11:00 pm. Melody Café is closed on Fridays and Saturdays.
+Restaurant "La Paella" is a popular dining destination in La Goulette, known for its delicious tapas and vibrant atmosphere. It boasts a high rating of 4.4 based on 26 reviews and features authentic Mediterranean cuisine in a charming setting.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4396,12 +6476,74 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Goulette plage located at R884+488 La Goulette plage, La Goulette. 
-This top-rated destination is perfect for Magasin d'articles de plage lovers . 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8224029, 10.3129791. For more details, visit their website at  or call them at .</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr"/>
+          <t>La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore the vibrant streets of La Goulette.
+Mid-Morning: Try local cuisine at Quedamos, a highly-rated restaurant offering a cozy dining experience.
+Midday: Visit the Port La Goulette, Tunisia's main port, and admire its architectural grandeur.
+Afternoon: Relax on the picturesque beach of La Goulette, enjoy swimming, or sunbathing.
+Evening: Take a guided tour of the La Goulette Ship Monument, delving into the maritime history of the region.
+Night: Enjoy a lively evening at White &amp; Gold Sensation, a highly-rated discotheque in La Goulette.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.
+**Quedamos** is a 4.5-star rated restaurant located in La Goulette, Tunis.
+With 8 reviews, Quedamos offers a cozy dining experience on Avenue Franklin Roosevelt. It opens from 11.00 AM - 11.00 PM every day and is accessible via phone at +216 29 462 516.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4497,12 +6639,71 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, be sure to check out Plage La Goulette located at 4 Av. De La Republique, La Goulette 2060. This top-rated destination is perfect for Attraction touristique lovers and has a rating of 3.7 out of 5. To get there, use these GPS coordinates: 36.8224029, 10.3129791.</t>
+          <t>Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where is the top-rated tourist attraction Plage La Goulette located in La Goulette, and what distinguishes it from other destinations in the area?</t>
+          <t>Day Plan:
+Morning: Explore the historic La Goulette Ship Monument to learn about the town's maritime heritage.
+Mid-Morning: Visit the Artisanat Aschi Arts and Crafts Museum to appreciate traditional Tunisian handicrafts.
+Midday: Try local cuisine at the highly-rated Restaurant STAMBALI for a delightful seafood experience.
+Afternoon: Stroll along La Goulette Plage, a beach shop offering a wide range of beach items for a leisurely shopping experience.
+Evening: Head to Le Manoir bar lounge for a relaxing ambiance and friendly staff to enjoy drinks and socialize in a cozy atmosphere.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation discotheque, known for its unique atmosphere and highly rated reviews.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Istanbul Cafe, located in La Goulette, is a cafe with a rating of 4.3 stars based on 3 reviews. It is open from 6:00 AM to midnight, and offers a variety of services, including food and drinks. The cafe is located at 36.814552814786 latitude and 10.301428102672 longitude.
+Leblebi chez Naceur is a highly rated restaurant in La Goulette, Tunisia, with a 4.5-star rating on Google Maps. It is known for its affordable prices and is located at coordinates (36.819519594693, 10.308368788244). The restaurant is open from 12:00 PM to 5:00 PM on weekdays and is closed on weekends.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4604,12 +6805,71 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in la goulette and craving for some delectable seafood, Restaurant Mossli is your go-to destination. This top-rated gem, located at 17 Av. Franklin Roosevelt, offers a culinary adventure you won't forget. With a stellar rating of 4.4, it's no wonder this restaurant is a local favorite. For more details, give them a call at 98 259 176 or visit their website.</t>
+          <t>**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you experience an unforgettable seafood culinary journey at a highly-rated destination?</t>
+          <t>Day Plan:
+Morning: Explore Artisanat Aschi for traditional Tunisian handicrafts and delve into the rich cultural heritage of La Goulette.
+Mid-Morning: Visit the La Goulette Village Harbor and admire the stunning views of the Mediterranean Sea. Take a leisurely stroll around the harbor and enjoy the vibrant atmosphere.
+Midday: Try local cuisine at Restaurant STAMBALI. Savor the authentic flavors of seafood dishes while enjoying the friendly ambiance of this 4.5-rated restaurant.
+Afternoon: Explore the historical La Goulette Ship Monument, a 5-star rated landmark that holds significant cultural value. Capture the beauty of the monument and its surroundings through photography.
+Evening: La Goulette Plage is the perfect spot to relax and enjoy the beautiful beach. Take a refreshing dip in the crystal-clear waters or unwind on the sandy shores.
+Night: Experience the vibrant nightlife of La Goulette at Wet Flamingo. Enjoy delicious cocktails and immerse yourself in the lively atmosphere of this popular bar.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).
+Restaurant "La Paella" is a popular dining destination in La Goulette, known for its delicious tapas and vibrant atmosphere. It boasts a high rating of 4.4 based on 26 reviews and features authentic Mediterranean cuisine in a charming setting.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4715,14 +6975,77 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant de fruits de mer destination, check out Restaurant STAMBALI located at 13 Av. Franklin Roosevelt. 
-This restaurant is perfect for Restaurant de fruits de mer lovers and offers a range of options to choose from.
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.8172435, 10.3059642. For more details, visit their website or call them at 98 304 979.</t>
+          <t>Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>In La Goulette, where can you indulge in highly-rated Restaurant de fruits de mer cuisine at "Restaurant STAMBALI"?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Port La Goulette (maritime port with customs, police, tourism services)
+**Mid-Morning:**
+- Visit the Artisanat Aschi (Arts and Crafts Museum) to admire traditional Tunisian handicrafts
+**Midday:**
+- Try local cuisine at **Restaurant Mossli** (seafood restaurant with friendly service)
+**Afternoon:**
+- Relax and enjoy the sun at Plage La Goulette (popular tourist beach)
+**Evening:**
+- Take a guided tour of the La Goulette Ship Monument (iconic historical landmark)
+**Night:**
+- Experience the vibrant nightlife at White &amp; Gold Sensation (rated 5.0 discotheque)</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+La Mer is a restaurant in La Goulette, Tunisia, with a rating of 3.1 out of 5 based on 232 reviews. It is located at coordinates (36.8212687, 10.310061) and is open from 12:00 PM to 00:00 AM every day. The restaurant serves a variety of dishes, including seafood, couscous, and grilled meats. It also has a terrace with views of the Mediterranean Sea.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4828,15 +7151,77 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Mer located at R8C6+F25 La Mer, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 3.1, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. 
-To get there, use these GPS coordinates: 36.8212687, 10.310061. For more details, visit their website  or call them at 21 644 611.</t>
+          <t>La Mer, located in La Goulette (lon: 10.310061, lat: 36.8212687), is a restaurant with a rating of 3.1 based on 232 reviews. It is open from 12:00-00:00 and serves a variety of dishes, including fish and couscous. Customers have praised the views from the terrace, but have also noted issues with the service and prices.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a top-rated restaurant destination with a variety of dining options?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the picturesque La Goulette Plage, a beach shop offering a wide range of beach items.
+**Mid-Morning:**
+* Visit Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+**Midday:**
+* Savor local cuisine and enjoy the convivial atmosphere at Restaurant La Paella, renowned for its Spanish cuisine and live music.
+**Afternoon:**
+* Embark on a guided tour of the La Goulette Ship Monument, gaining insights into the maritime history of La Goulette.
+**Evening:**
+* Relax with a soothing massage and rejuvenate at a spa in the Goulette Village Harbor, offering stunning views of the Mediterranean Sea.
+**Night:**
+* Experience the vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque known for its unique atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Lella Garbia** is a highly-rated cafe located in La Goulette with a focus on coffee and other beverages. The cafe is easily accessible and conveniently located in the heart of the city. With a 5.0 rating and positive reviews, Lella Garbia is well-received by visitors and locals alike.
+Restaurant La Paella is a highly-rated eatery situated in the La Goulette neighborhood. It boasts a menu featuring Spanish cuisine, particularly paella. The restaurant's ambiance is convivial, with live music and a bustling atmosphere. Patrons have praised its tapas selection, friendly service, and convenient location (at 36.8220926, 10.3112338).
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4938,12 +7323,72 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Goulette Ship Monument located at R79W+67J La Goulette Ship Monument, La Goulette. This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of Fabricant de monuments to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 47.744120575944, 6.541685240326.</t>
+          <t>La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Which top-rated destination in La Goulette, known for its Fabricant de monuments, is perfect for enthusiasts of this craft?</t>
+          <t>Day Plan:
+Morning: Explore the colorful streets of **La Goulette** town, admiring its unique blend of Tunisian and European architecture.
+Mid-Morning: Visit the **Artisanat Aschi** Arts and Crafts Museum, showcasing the rich artistic heritage of Tunisia.
+Midday: Satisfy your taste buds with a delicious seafood lunch at **Restaurant Mossli**, known for its delectable fish dishes.
+Afternoon: Indulge in the sun-soaked atmosphere of **Plage La Goulette**, relax on its golden sands, and immerse yourself in the beauty of the Mediterranean Sea.
+Evening: Experience the lively ambiance of **The NINETY-NINE**, a popular pizzeria serving authentic Italian flavors.
+Night: End the evening with a refreshing cocktail at **Wet Flamingo**, a stylish bar renowned for its vibrant atmosphere and exceptional drinks.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).
+Quedamos is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located at the coordinates (36.820285616825, 10.309149813982).
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5045,14 +7490,73 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Statue of Habib Bourguiba located at R882+32M Statue of Habib Bourguiba, Statue de Habib Bourguiba, La Goulette. 
-This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of Fabricant de monuments to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.853308551942, 10.261170411225. For more details, visit their website at https://www.google.com/maps/place/Statue+of+Habib+Bourguiba/data=!4m7!3m6!1s0x12fd4b0315f673bf:0x74c7229f156abd7!8m2!3d36.8152104!4d10.300042!16s%2Fg%2F11j373g84s!19sChIJv3P2FQNL_RIR16tW8SlyTAc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where can you visit a top-rated destination in La Goulette that offers a variety of monuments and is especially popular with Fabricant de monuments enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Statue of Habib Bourguiba in La Goulette, Tunisia.
+Mid-Morning: Experience the traditional Tunisian handicrafts at Artisanat Aschi.
+Midday: Savor delicious Neapolitan-style pizzas at L'antica pizzeria for an authentic culinary experience.
+Afternoon: Enjoy a relaxing stroll along Plage La Goulette, admiring its beautiful sandy beaches and picturesque views.
+Evening: Participate in a guided tour of the Goulette Village Harbor, discovering its fascinating maritime history.
+Night: Immerse yourself in the vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque in La Goulette.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe des delices is a cafe located at 57 Av. Mohamed 5, La Goulette, Tunisia. It is open from 6:00 AM to 12:00 AM and is rated 5.0 out of 5 stars on Google. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe also has a friendly staff and a comfortable atmosphere.
+**Quedamos** is a 4.5-star rated restaurant located in La Goulette, Tunis.
+With 8 reviews, Quedamos offers a cozy dining experience on Avenue Franklin Roosevelt. It opens from 11.00 AM - 11.00 PM every day and is accessible via phone at +216 29 462 516.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5154,14 +7658,71 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Goulette Ship Monument located at R79W+67J La Goulette Ship Monument, La Goulette. 
-This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of Fabricant de monuments to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 47.744120575944, 6.541685240326. For more details, visit their website at https://www.google.com/maps/place/La+Goulette+Ship+Monument/data=!4m7!3m6!1s0x12fd4bda66d00265:0xff58de33187dec7!8m2!3d36.8180881!4d10.2956417!16s%2Fg%2F11j8z_y6pk!19sChIJZQLQZtpL_RIRx96HMeON9Q8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a top-rated destination that offers a range of Fabricant de monuments?</t>
+          <t>Day Plan:
+Morning: Explore the historic streets of La Goulette, visit Artisanat Aschi for local handicrafts, and engage in outdoor activities like cycling along the scenic coastline.
+Mid-Morning: Experience cultural immersion at the La Goulette Ship Monument and learn about the town's rich maritime heritage. Enjoy a relaxing break with a cup of tea and pastries at Astoria Coffee.
+Midday: Try local cuisine at Restaurant STAMBALI, known for its delectable seafood dishes, and savor the flavors of Tunisian gastronomy.
+Afternoon: Visit the La Goulette Casino for some gambling excitement or indulge in shopping at Goulette Neuve, offering a wide range of local goods and souvenirs.
+Evening: Take a leisurely stroll along the picturesque La Goulette Beach, enjoy scenic views, and capture the beauty of the sunset.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque in La Goulette, and dance the night away to the latest tunes.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).
+Quedamos is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located at the coordinates (36.820285616825, 10.309149813982).
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5263,14 +7824,72 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Statue of Habib Bourguiba.
-This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of Fabricant de monuments to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.853308551942, 10.261170411225. For more details, visit their website at https://www.google.com/maps/place/Statue+of+Habib+Bourguiba/data=!4m7!3m6!1s0x12fd4b0315f673bf:0x74c7229f156abd7!8m2!3d36.8152104!4d10.300042!16s%2Fg%2F11j373g84s!19sChIJv3P2FQNL_RIR16tW8SlyTAc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a top-rated destination with a 5.0 rating that is perfect for admirers of Fabricant de monuments?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of the La Goulette Ship Monument, a renowned historical landmark with significant cultural value in La Goulette, Tunisia.
+Mid-Morning: Explore the Artisanat Aschi, an Arts and Crafts Museum located in La Goulette, and discover a wide range of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork.
+Midday: Enjoy a delicious seafood lunch at Restaurant STAMBALI, a 4.5-rated restaurant located at 13 Av. Franklin Roosevelt in La Goulette, known for its exquisite seafood dishes.
+Afternoon: Relax with a soothing spa treatment at the Matelot Pizzeria, a highly-rated pizzeria in La Goulette, known for its 24-hour service and delicious pizzas.
+Evening: Explore the local cuisine at Vin sur Vin, a popular bistro situated in the heart of La Goulette, offering a cozy atmosphere with a focus on wine and cheese pairings.
+Night: Immerse yourself in the vibrant ambiance of White &amp; Gold Sensation, a discotheque located in la goulette, highly rated for its unique experience, as suggested by its name.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Goletta, located in La Goulette (Tunisia) with the coordinates (36.81825, 10.3052), is a highly-rated cafe with a 4.4 rating based on 21 reviews. The cafe is open from 7:00 AM to 11:00 PM and offers a range of services. Visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ for more information.
+La Spigola is a 4-star rated restaurant located in La Goulette, Tunisia. It is open from 12:00 pm to 1:00 am and is known for its Italian cuisine, especially its seafood dishes. The restaurant has 495 reviews, with many customers praising the quality of the food, the wine selection, and the service. La Spigola is a popular destination for both locals and tourists, and it offers a great dining experience in a beautiful setting.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5372,12 +7991,71 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something interesting to do, you must visit La Goulette Ship Monument. Located at R79W+67J La Goulette Ship Monument, this top-rated destination is a must-visit for history and culture buffs. With a rating of 5.0, it's a spot that you don't want to miss during your stay. Unfortunately, we don't have information about the opening and closing hours of the monument. For more information, you can reach them at the provided link or the available GPS coordinates.</t>
+          <t>La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated historical monument in La Goulette with a 5.0 rating and located at R79W+67J?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque La Goulette, taking in its vibrant atmosphere and historic landmarks.
+Mid-Morning: Visit the highly-rated Artisanat Aschi, immersing yourself in the rich tradition of Tunisian handicrafts and admiring the exquisite displays.
+Midday: Savor the authentic flavors of La Goulette at Restaurant STAMBALI, renowned for its exceptional seafood menu.
+Afternoon: Seek rejuvenation at the luxurious Le manoir, indulging in a relaxing spa treatment or enjoying a delightful afternoon tea.
+Evening: Experience the lively ambiance and tantalizing cocktails of Wet Flamingo, a popular bar known for its festive atmosphere and friendly clientele.
+Night: Immerse yourself in the local culture at White &amp; Gold Sensation, a vibrant discotheque that promises an unforgettable evening of music and dancing.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe des delices is a cafe located at 57 Av. Mohamed 5, La Goulette, Tunisia. It is open from 6:00 AM to 12:00 AM and is rated 5.0 out of 5 stars on Google. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe also has a friendly staff and a comfortable atmosphere.
+Restaurant "La Paella" is a popular dining destination in La Goulette, known for its delicious tapas and vibrant atmosphere. It boasts a high rating of 4.4 based on 26 reviews and features authentic Mediterranean cuisine in a charming setting.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5479,14 +8157,71 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Statue of Habib Bourguiba located at Statue de Habib Bourguiba, La Goulette. 
-This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.853308551942, 10.261170411225.</t>
+          <t>**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>What highly-rated historical landmark specializing in Fabricant de monuments can be found in La Goulette at GPS coordinates 36.853308551942, 10.261170411225?</t>
+          <t>Day Plan:
+Morning: Explore the charming tourist destination of **La Goulette**, known for its picturesque beach and lively atmosphere.
+Mid-Morning: Immerse yourself in local cuisine by trying delicious seafood dishes at **Restaurant Mossli**, renowned for its friendly service.
+Midday: Visit the **La Goulette Ship Monument**, a historical monument offering a unique insight into the maritime history of La Goulette.
+Afternoon: Engage in outdoor activities at **Sam's Beach**, a popular cafe renowned for its delicious hot chocolates, or relax and enjoy the sun at **La Goulette Plage**.
+Evening: Experience cultural immersion at **Artisanat Aschi**, an Arts and Crafts Museum showcasing a wide variety of traditional Tunisian handicrafts.
+Night: Immerse yourself in the lively atmosphere of **White &amp; Gold Sensation**, a highly rated discotheque offering a unique and vibrant experience.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Drive Coffee Shop is located in La Goulette, Tunisia, at coordinates (36.815875813745, 10.303725297704). It is open from 6AM to 10PM and offers a variety of coffee and tea drinks. The shop is also a popular spot for breakfast and lunch, with a menu that includes sandwiches, salads, and pastries.
+Chicago La Goulette is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood and meats. The restaurant is located at 2 Av. Franklin Roosevelt and is open from 12:00 to 00:00. It is closed on Sundays. The restaurant has 16 reviews and an average rating of 4.3 out of 5 stars.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5584,12 +8319,71 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you're in la goulette and looking for something fun to do, check out la goulette located at 13 Av. Franklin Roosevelt, La Goulette 2060. This top-rated destination is perfect for Attraction touristique lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.818369309115, 10.306994299159. For more details, visit their website at </t>
+          <t>"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated tourist attraction with GPS coordinates 36.818369309115, 10.306994299159 in La Goulette?</t>
+          <t>Day Plan:
+Morning: Explore Artisanat Aschi, La Goulette's Arts and Crafts Museum, to immerse yourself in traditional Tunisian handicrafts.
+Mid-Morning: Visit La Goulette Ship Monument, an iconic landmark with historical significance.
+Midday: Savor delicious seafood cuisine at Restaurant Mossli, a highly-rated local restaurant.
+Afternoon: Experience the lively atmosphere at La Goulette Village Harbor and enjoy the amenities offered by this ferry company and hotel complex.
+Evening: Head to Wet Flamingo, a popular bar known for its cocktails and ambiance.
+Night: Immerse yourself in the local culture at White &amp; Gold Sensation, a highly-rated discotheque offering a unique and memorable experience.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.
+Resto al ahbab is a restaurant located in La Goulette, Tunisia. The is rated 4.0 and has 5 reviews. The main category is Restaurant and it offers a variety of dishes. The restaurant is located at the following address: 17 Av. Franklin Roosevelt, La Goulette. The coordinates are (36.818333303937, 10.307128182755).
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5699,15 +8493,72 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great Musee de l'artisanat, check out Artisanat Aschi located at 9 Av. Franklin Roosevelt. 
-This top-rated destination is perfect for Musee de l'artisanat lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-20:00. To get there, use these GPS coordinates: 36.816346083634, 10.30490716542. For more details, visit their website 
-at https://www.facebook.com/Artisanat-Aschi-49910356538/?ref=bookmarks or call them at 55 517 132.</t>
+          <t>Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Musee de l'artisanat with the name "Artisanat Aschi" in la goulette?</t>
+          <t>Day Plan:
+Morning: Exploring La Goulette Plage and trying local cuisine at Sam's Beach La Goulette
+Mid-Morning: Shopping at Goulette Neuve and taking a guided tour of Artisanat Aschi
+Midday: Enjoying scenic views at Port La Goulette
+Afternoon: Experiencing cultural immersion at La Goulette Village Harbor
+Evening: Trying local cuisine at Restaurant Mossli
+Night: Enjoying cocktails and nightlife at Wet Flamingo</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.
+Angelina La Goulette Restaurant &amp; Lounge is a restaurant located at 2 Av. Franklin Roosevelt, La Goulette. It's a popular spot for locals and tourists alike, offering a variety of dishes in a relaxed and friendly atmosphere. The restaurant is open from 12:00-00:00 every day, and it's closed on Sundays.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5805,12 +8656,72 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Port La Goulette located at Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for Port maritime lovers and offers a range of Port maritime to choose from. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.8211832, 10.3080813. For more details, visit their website at https://www.google.com/maps/place/Port+La+Goulette/data=!4m7!3m6!1s0x12fd4afe1c55f7dd:0x6142abb884d982ab!8m2!3d36.8105759!4d10.303487!16s%2Fg%2F11_q3k7bn!19sChIJ3fdVHP5K_RIRq4LZhLirQmE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>If you're in La Goulette and seeking a renowned destination for Port maritime enthusiasts, where can you find this top-rated location with a rating of 3.4?</t>
+          <t>Day Plan:
+Morning: Explore the scenic La Goulette Plage, offering a wide range of beach items for a perfect day by the shore.
+Mid-Morning: Immerse yourself in history at the Artisanat Aschi, a museum showcasing traditional Tunisian handicrafts, immersing you in the country's rich cultural heritage.
+Midday: Indulge in the local flavors and ambiance at Sam's Beach La Goulette, savoring their delicious hot chocolates, crepes, and teas.
+Afternoon: Head to Goulette Neuve for an exciting transportation experience, offering reliable services to explore the area further.
+Evening: Experience the lively atmosphere of White &amp; Gold Sensation, a highly-rated discotheque, immersing yourself in its unique ambiance and vibrant nightlife.
+Night: Relax and rejuvenate with a tranquil stroll through La goulette Fontaine, a picturesque fountain offering a serene atmosphere to end the day on a peaceful note.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Lella Garbia** is a highly-rated cafe located in La Goulette with a focus on coffee and other beverages. The cafe is easily accessible and conveniently located in the heart of the city. With a 5.0 rating and positive reviews, Lella Garbia is well-received by visitors and locals alike.
+La Mer is a restaurant in La Goulette, Tunisia, with a rating of 3.1 out of 5 based on 232 reviews. It is located at coordinates (36.8212687, 10.310061) and is open from 12:00 PM to 00:00 AM every day. The restaurant serves a variety of dishes, including seafood, couscous, and grilled meats. It also has a terrace with views of the Mediterranean Sea.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5908,16 +8819,71 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in la goulette, check out la goulette located at 13 Av. Franklin Roosevelt, La Goulette 2060. 
-This top-rated Attraction touristique destination is perfect for Attraction touristique lovers. 
-With a rating of 4.5, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.818369309115, 10.306994299159. 
-For more details, visit their website at https://www.google.com/maps/place/la+goulette/data=!4m7!3m6!1s0x12fd4bb71a62ab3d:0x4fa0a36d7ba95206!8m2!3d36.8192498!4d10.3032755!16s%2Fg%2F11pbz4k8q7!19sChIJPatiGrdL_RIRBlKpe22joE8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated tourist attraction called La Goulette, perfect for enthusiasts of this type of destination?</t>
+          <t>Day Plan:
+Morning: Exploring La Goulette Village Harbor
+Mid-Morning: Trying local cuisine at Restaurant STAMBALI
+Midday: Visiting L'antica pizzeria for lunch and savoring its Neapolitan-style pizzas
+Afternoon: Enjoying a recreational activity at Plage La Goulette with swimming and sunbathing
+Evening: Relaxing with a massage at Goulette Village Harbor Hotel and Spa
+Night: Participating in the lively atmosphere at White &amp; Gold Sensation Discotheque</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Goletta, located in La Goulette (Tunisia) with the coordinates (36.81825, 10.3052), is a highly-rated cafe with a 4.4 rating based on 21 reviews. The cafe is open from 7:00 AM to 11:00 PM and offers a range of services. Visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ for more information.
+Restaurant Le Cordoue, located at 13 Av. Franklin Roosevelt, La Goulette 2060, is a top-rated (4.4 stars) restaurant. It offers a wide range of dining options, with an emphasis on Mediterranean cuisine. The restaurant is conveniently located near the La Goulette port, making it easily accessible from both land and sea.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6019,13 +8985,78 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Are you in la goulette and looking for a place to stay? Consider Goulette Village Harbor located at R77V+6GF Goulette Village Harbor, village touristique port de la Goulette, La Goulette 2060. 
-This well-rated 4.5 star hotel is perfect for those looking for a hotel and also offers ferry services. It's open 24/7, so you can visit anytime. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more information, call them at 71 737 610.</t>
+          <t>Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>If you're seeking accommodation in La Goulette and are searching for a well-regarded 4.5-star hotel that provides ferry services and is conveniently open 24/7, what is the name and address of this establishment?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the charming streets of La Goulette, a picturesque coastal town with a rich history.
+**Mid-Morning:**
+- Indulge in a delightful breakfast at Sam's Beach La Goulette, renowned for its delectable hot chocolates and cozy atmosphere.
+**Midday:**
+- Visit the Artisanat Aschi Arts and Crafts Museum to admire the exquisite traditional Tunisian handicrafts on display.
+**Afternoon:**
+- Enjoy the breathtaking panoramic views of La Goulette from the renowned panoramic view, capturing the town's vibrant beauty.
+**Evening:**
+- Immerse yourself in the vibrant atmosphere of White &amp; Gold Sensation, a highly-rated discotheque that offers a unique and unforgettable experience.
+**Night:**
+- Relax and unwind with a refreshing cocktail at Wet Flamingo, a popular bar known for its lively ambiance and excellent clientele.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Drive Coffee Shop is located in La Goulette, Tunisia, at coordinates (36.815875813745, 10.303725297704). It is open from 6AM to 10PM and offers a variety of coffee and tea drinks. The shop is also a popular spot for breakfast and lunch, with a menu that includes sandwiches, salads, and pastries.
+Restaurant Djerbien The House - lHwsh is a highly-rated restaurant located in La Goulette, Tunisia, boasting a 4.3-star rating. It specializes in traditional Tunisian cuisine and offers a cozy ambiance. The menu includes a range of dishes, including couscous, succulent meats, and flavorful breads. The restaurant is conveniently situated at 43 Av. Franklin Roosevelt, with coordinates (36.820006583268, 10.308868098217).
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6123,12 +9154,71 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La goulette Fontaine located at R883+FR9 La goulette Fontaine, La Goulette. This top-rated destination is perfect for Attraction touristique lovers. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 50.390652, 4.3358765.</t>
+          <t>La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>What top-rated Attraction touristique destination with GPS coordinates 50.390652, 4.3358765 can be found near La Goulette?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque La Goulette Plage, enjoying the sights and sounds of the bustling beach.
+Mid-Morning: Visit La Gare Maritime La Goulette, a notable ferry terminal that offers scenic views and the chance to witness the lively atmosphere of the waterfront.
+Midday: Delight in an authentic Tunisian lunch at Restaurant "La Paella," renowned for its delicious tapas and vibrant atmosphere.
+Afternoon: Immerse yourself in the rich history and culture of La Goulette by exploring the Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+Evening: Ascend to the commanding heights of the Statue of Habib Bourguiba, a magnificent monument that provides breathtaking panoramic views of the city and beyond.
+Night: Head to Le manoir, a stylish bar lounge known for its chic ambiance and inviting atmosphere, perfect for winding down the evening with a drink and mingling with locals.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, at the coordinates (36.821202134027, 10.309845129925), Salon De The Casablanca is a cafe with a 4.4-star rating. It's open from 7:15 AM to 1:00 AM, every day of the week.
+Restaurant "La Paella" is a popular dining destination in La Goulette, known for its delicious tapas and vibrant atmosphere. It boasts a high rating of 4.4 based on 26 reviews and features authentic Mediterranean cuisine in a charming setting.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6230,12 +9320,71 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Bar lounge, check out Le manoir located at 100 Rte de La Goulette, Gammarth. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00, but closed on dimanche. To get there, use these GPS coordinates: 36.9090968, 10.3112864. For more details, visit their website at https://www.google.com/maps/place/Le+manoir/data=!4m7!3m6!1s0x12fd4b8c5deb4d0b:0x7163b3e5c025e130!8m2!3d36.8389605!4d10.3182491!16s%2Fg%2F11thkwhv8l!19sChIJC03rXYxL_RIRMOElwOWzY3E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Which top-rated Bar lounge with a 5.0 rating in La Goulette can you visit at 100 Rte de La Goulette, Gammarth?</t>
+          <t>Day Plan:
+Morning: Exploring La Goulette Ship Monument
+Mid-Morning: Trying local cuisine at Restaurant Massli
+Midday: Visiting Goulette Neuve for transportation services
+Afternoon: Shopping at Artisanat Aschi
+Evening: Relaxing with cocktails at Wet Flamingo
+Night: Enjoying the nightlife at White &amp; Gold Sensation</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Drive Coffee Shop is located in La Goulette, Tunisia, at coordinates (36.815875813745, 10.303725297704). It is open from 6AM to 10PM and offers a variety of coffee and tea drinks. The shop is also a popular spot for breakfast and lunch, with a menu that includes sandwiches, salads, and pastries.
+Restaurant Chez BARHOUM is a highly-rated restaurant located in La Goulette, Tunisia. Known for its excellent dining experience, it offers a wide range of culinary delights to satisfy even the most discerning palate. With its convenient location at coordinates (36.8275081, 10.3125504), the establishment invites patrons to immerse themselves in a gastronomic journey.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6337,12 +9486,87 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun, check out White &amp; Gold Sensation located at 01 La Goulette Rd, 2016. This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 40.824338, -75.017444. For more details, visit their website or call them at 24 779 131.</t>
+          <t>White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Discotheque with a perfect 5.0 rating in La Goulette?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the picturesque streets of "La Goulette" to immerse yourself in the local life and culture.
+**Mid-Morning:**
+- Visit the renowned Goulette Ship Monument, a historical landmark that serves as a tribute to the town's maritime heritage.
+**Midday:**
+- Savor a delightful lunch at "L'antica pizzeria," a culinary haven known for its authentic Neapolitan-style pizzas.
+**Afternoon:**
+- Take a stroll through Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+**Evening:**
+- Enjoy a refreshing swim and relax at La Goulette Plage, a beach ideally situated for seaside relaxation.
+**Night:**
+- Experience the lively atmosphere of Wet Flamingo, a 4.2-star rated bar known for its cocktails, ambiance, and clientele.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.
+In the heart of La Goulette, Platinium Restaurant welcomes you with a warm and friendly atmosphere. Located at 4 Av. Franklin Roosevelt, the restaurant invites you to savor delicious dishes in a convivial setting. With a rating of 4.2 and 52 reviews, Platinium Restaurant is a popular destination for locals and visitors alike.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6448,12 +9672,78 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Bar, check out Wet Flamingo located at R8C6+RF2 Wet Flamingo, Av. De La Republique, La Goulette. This popular destination offers a range of Bar options to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 16:00-02:00, but closed on dimanche. To get there, use these GPS coordinates: 36.815462789831, 10.305610962712. For more details, visit their website at https://www.google.com/maps/place/Wet+Flamingo/data=!4m7!3m6!1s0x12fd4b82c8d57741:0xac3ec5cde1dca6da!8m2!3d36.822019!4d10.3111403!16s%2Fg%2F11h9gt26fg!19sChIJQXfVyIJL_RIR2qbc4c3FPqw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 31 151 657.</t>
+          <t>Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>If you find yourself in La Goulette and craving a highly-rated Bar, where can you go for a top-notch experience?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the vibrant "La Goulette" tourist attraction, offering insights into local life and culture.
+**Mid-Morning:**
+* Visit Restaurant Djerbien The House - lHwsh for a culinary delight, savoring traditional Tunisian dishes in a cozy atmosphere.
+**Midday:**
+* Immerse yourself in history at the Statue of Habib Bourguiba, a majestic monument overlooking the picturesque coastline.
+**Afternoon:**
+* Enjoy a refreshing break at Sam's Beach La Goulette, sipping on hot chocolate, indulging in crepes, or sipping aromatic teas.
+**Evening:**
+* Experience the lively ambiance of White &amp; Gold Sensation discotheque, renowned for its unique atmosphere and pulsating music.
+**Night:**
+* Relax and unwind at Astoria Coffee, a charming teahouse offering a warm atmosphere and a delectable selection of teas, coffees, and pastries.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Baba Azizi La Goulette is a cafe located in La Goulette, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 14 Av. Habib Bourghuiba, La Goulette and can be contacted at 20 335 001.
+Restaurant Djerbien The House - lHwsh is a highly-rated restaurant located in La Goulette, Tunisia, boasting a 4.3-star rating. It specializes in traditional Tunisian cuisine and offers a cozy ambiance. The menu includes a range of dishes, including couscous, succulent meats, and flavorful breads. The restaurant is conveniently situated at 43 Av. Franklin Roosevelt, with coordinates (36.820006583268, 10.308868098217).
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6555,14 +9845,71 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a nice Bistro, check out Vin sur Vin located at 20 Rue Ali Bach, La Goulette 2060. 
-This top-rated destination is perfect for Bistro lovers and offers a range of Bistro categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more details, visit their website at  or call them at 53 270 000.</t>
+          <t>Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where is a top-rated Bistro in La Goulette with a rating of 4.0 and is perfect for Bistro enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Goulette Neuve neighborhood
+Mid-Morning: Trying local cuisine at Sam's Beach La Goulette
+Midday: Visiting La Goulette Ship Monument
+Afternoon: Enjoying scenic views at La Goulette Plage Beach
+Evening: Relaxing with a massage at Le Manoir Lounge
+Night: Participating in a guided tour of Artisanat Aschi Arts and Crafts Museum</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).
+In the heart of La Goulette, Platinium Restaurant welcomes you with a warm and friendly atmosphere. Located at 4 Av. Franklin Roosevelt, the restaurant invites you to savor delicious dishes in a convivial setting. With a rating of 4.2 and 52 reviews, Platinium Restaurant is a popular destination for locals and visitors alike.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6664,12 +10011,71 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Le manoir located at 100 Rte de La Goulette, Gammarth. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge activities to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00, but closed on dimanche. To get there, use these GPS coordinates: 36.9090968, 10.3112864. For more details, visit their website at https://www.google.com/maps/place/Le+manoir/data=!4m7!3m6!1s0x12fd4b8c5deb4d0b:0x7163b3e5c025e130!8m2!3d36.8389605!4d10.3182491!16s%2Fg%2F11thkwhv8l!19sChIJC03rXYxL_RIRMOElwOWzY3E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Bar lounge in La Goulette with a 5.0 rating and a prime location?</t>
+          <t>Day Plan:
+Morning: Explore the historical La Goulette Ship Monument, known for its cultural significance and panoramic views.
+Mid-Morning: Indulge in traditional Tunisian cuisine at Restaurant STAMBALI, rated 4.5 for its delicious seafood dishes.
+Midday: Visit the enchanting La Goulette Beach, where you can relax, soak up the sun, and enjoy the refreshing ambiance.
+Afternoon: Take a revitalizing walk through the picturesque Artisanat Aschi, an Arts and Crafts Museum showcasing a diverse range of authentic Tunisian handicrafts.
+Evening: Experience the lively atmosphere of White &amp; Gold Sensation, a 5.0-rated discotheque known for its vibrant ambiance and lively music.
+Night: End the day with a relaxing and refreshing drink at Le Manoir, a charming bar lounge with a cozy ambiance and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Goletta, located in La Goulette (Tunisia) with the coordinates (36.81825, 10.3052), is a highly-rated cafe with a 4.4 rating based on 21 reviews. The cafe is open from 7:00 AM to 11:00 PM and offers a range of services. Visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ for more information.
+Quedamos is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located at the coordinates (36.820285616825, 10.309149813982).
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6771,12 +10177,71 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Le manoir located at 100 Rte de La Goulette, Gammarth. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00, but closed on dimanche. To get there, use these GPS coordinates: 36.9090968, 10.3112864. For more details, visit their website at nan.</t>
+          <t>Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Le manoir located and what is its unique attraction for Bar lounge enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette Old Town (Landmark)
+Mid-Morning: Try local cuisine at Restaurant Le Cordoue (Restaurant)
+Midday: Visit the Goulette Village Harbor (Attraction) and take a ferry to Tunis
+Afternoon: Shop for souvenirs at Artisanat Aschi (Market) and enjoy scenic views at the La Goulette Plage (Scenic Spot)
+Evening: Participate in the White &amp; Gold Sensation (Event)
+Night: Relax with cocktails and entertainment at Wet Flamingo (Bar)</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Istanbul Cafe, located in La Goulette, is a cafe with a rating of 4.3 stars based on 3 reviews. It is open from 6:00 AM to midnight, and offers a variety of services, including food and drinks. The cafe is located at 36.814552814786 latitude and 10.301428102672 longitude.
+Restaurant Le Cordoue is a renowned dining destination located at 13 Av. Franklin Roosevelt in La Goulette. This esteemed establishment boasts a rating of 4.4 stars based on the experiences of its satisfied patrons. Open daily from 11 am to 11:30 pm, the restaurant invites diners to savor its culinary delights in a warm and welcoming atmosphere.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6886,12 +10351,73 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a bite to eat, head over to Restaurant Djerbien The House - lHwsh at 43 Av. Franklin Roosevelt. This top-rated restaurant is ideal for diners and offers a selection of Restaurant to sample from. With a rating of 4.3, it's a must-try spot. It's open during these hours: 12:30-22:30, but closed on Monday. For more details, visit their website at https://facebook.com/ElHoucheLaGoulette or call them at 28 413 413.</t>
+          <t>Restaurant Djerbien The House - lHwsh is a restaurant located in la goulette, Tunisia. It offers a variety of Tunisian dishes, including couscous, pain, and entrees. The restaurant has received positive reviews for its food, service, and atmosphere. It is closed on Mondays and is open from 12:30 to 22:30 on other days. The restaurant is located at 43 Av. Franklin Roosevelt, La Goulette.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated Restaurant Djerbien The House - lHwsh in La Goulette, known for its ample seating options?</t>
+          <t>Day Plan:
+Morning: Visit the historic La Goulette Fontaine and admire its beautiful fountain in the relaxing atmosphere.
+Mid-Morning: Explore the Goulette Neuve train station, a convenient hub for public transportation in the area.
+Midday: Try local cuisine at Quedamos, a 4.5-rated restaurant offering a cozy dining experience on Avenue Franklin Roosevelt.
+Afternoon: Engage in outdoor activities like cycling or walking at Parc Saada, enjoying the scenic views of the Mediterranean Sea.
+Evening: Visit the Artisanat Aschi, an Arts and Crafts Museum, showcasing traditional Tunisian handicrafts and offering an insight into the local culture.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation discotheque, known for its unique atmosphere and highly rated by visitors.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe des delices is a cafe located at 57 Av. Mohamed 5, La Goulette, Tunisia. It is open from 6:00 AM to 12:00 AM and is rated 5.0 out of 5 stars on Google. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe also has a friendly staff and a comfortable atmosphere.
+**Quedamos** is a 4.5-star rated restaurant located in La Goulette, Tunis.
+With 8 reviews, Quedamos offers a cozy dining experience on Avenue Franklin Roosevelt. It opens from 11.00 AM - 11.00 PM every day and is accessible via phone at +216 29 462 516.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7001,12 +10527,72 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated spot to enjoy some Restaurant cuisine, check out La Spigola located at 52 Av. Franklin Roosevelt, La Goulette 2060. This popular destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot for locals and tourists alike. It's open during these hours: 12:00-01:00, but closed on None. To get there, use these GPS coordinates: 36.820417701024, 10.308938252722. For more details, visit their website at https://www.facebook.com/Restaurant.La.Spigola/ or call them at 71 738 345.</t>
+          <t>La Spigola is a 4-star rated restaurant located in La Goulette, Tunisia. It is open from 12:00 pm to 1:00 am and is known for its Italian cuisine, especially its seafood dishes. The restaurant has 495 reviews, with many customers praising the quality of the food, the wine selection, and the service. La Spigola is a popular destination for both locals and tourists, and it offers a great dining experience in a beautiful setting.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant cuisine establishment with a 4.0 rating, located at 52 Av. Franklin Roosevelt in La Goulette?</t>
+          <t>Day Plan:
+Morning: Explore the historical and picturesque town of La Goulette, starting with a visit to the **Statue of Habib Bourguiba**, a commemorative monument honoring Tunisia's first president.
+Mid-Morning: Immerse yourself in the local culture at the **Artisanat Aschi**, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+Midday: Treat yourself to a delectable seafood meal at **Restaurant STAMBALI**, a highly-rated restaurant renowned for its fresh and flavorful seafood dishes.
+Afternoon: Enjoy a relaxing stroll along **La Goulette Plage**, a beach characterized by its picturesque scenery, and soak up the sun while relishing the coastal ambiance.
+Evening: Embark on a guided tour of the **Port La Goulette**, the main port of Tunisia, to witness the vibrant maritime activities and learn about its historical significance.
+Night: Indulge in a delightful traditional dinner at **Quedamos**, a cozy restaurant offering a variety of authentic dishes, and experience the warm and welcoming hospitality of La Goulette.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+**Quedamos** is a 4.5-star rated restaurant located in La Goulette, Tunis.
+With 8 reviews, Quedamos offers a cozy dining experience on Avenue Franklin Roosevelt. It opens from 11.00 AM - 11.00 PM every day and is accessible via phone at +216 29 462 516.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7116,14 +10702,71 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant, check out Restaurant Djerbien The House - lHwsh located at 43 Av. Franklin Roosevelt, La Goulette. 
-This highly-rated destination offers a range of Restaurant options to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:30-22:30, but closed on lundi. To get there, use these GPS coordinates: 36.820006583268, 10.308868098217. For more details, visit their website at https://facebook.com/ElHoucheLaGoulette or call them at 28 413 413.</t>
+          <t>Restaurant Djerbien The House - lHwsh is a restaurant located at the address 43 Av. Franklin Roosevelt, La Goulette, Tunisia. The restaurant is open from 12:30pm to 10:30pm, and is closed on Mondays. The restaurant offers Tunisian cuisine, and has a rating of 4.3 out of 5 stars on Google Maps. The restaurant's main category is Restaurant, and its other categories include Restaurant. The restaurant's phone number is 28 413 413.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated Restaurant with a wide selection of options in La Goulette, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the charming town of La Goulette, starting at the picturesque "La Goulette" tourist attraction.
+Mid-Morning: Embark on a guided tour of the historical La Goulette Ship Monument, a symbol of the town's maritime heritage.
+Midday: Indulge in a delightful local lunch at the well-reviewed Restaurant Waywa, known for its authentic seafood dishes.
+Afternoon: Head to La Goulette Plage, a beach shop where you can purchase beach essentials and enjoy the sun and sand.
+Evening: Visit Artisanat Aschi, an Arts and Crafts Museum that showcases a variety of traditional Tunisian handicrafts.
+Night: Experience the vibrant atmosphere of Wet Flamingo, a popular bar known for its cocktails and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Baba Azizi La Goulette is a cafe located in La Goulette, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 14 Av. Habib Bourghuiba, La Goulette and can be contacted at 20 335 001.
+Restaurant Waywa is a well-reviewed (4.2 stars from 39 reviews) restaurant located in La Goulette, Tunisia (36.8171268, 10.3054433). It specializes in seafood dishes and is known for its affordable prices. The restaurant is open 24 hours a day, making it a convenient option for travelers and locals alike.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7233,14 +10876,72 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delicious meal, check out La Petite Etoile located at Port, La Goulette 1067. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Restaurant mediterraneen to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-02:00. To get there, use these GPS coordinates: 36.8172255, 10.2906979. For more details, visit their website at https://www.facebook.com/people/La-Petite-Etoile/100066899700178/ or call them at 55 761 996.</t>
+          <t>**La Petite Etoile**, located in La Goulette, Tunisia (36.8172255, 10.2906979), is a cozy restaurant specializing in Mediterranean cuisine. With a rating of 4.1 stars and 173 reviews, it has gained a reputation for its delectable seafood dishes, particularly its poisson. The menu includes a wide range of choices, including pasta, wine, and other local delicacies. Its convenient hours (12:00 PM - 02:00 AM) and friendly staff add to the positive dining experience.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where is the top-rated destination La Petite Etoile on Port, La Goulette 1067 that offers a pleasant dining experience for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant coastline of La Goulette at "La Goulette Plage", indulging in the local beach culture.
+Mid-Morning: Visit the highly-rated teahouse "Astoria Coffee" for a refreshing beverage and a taste of Tunisian hospitality.
+Midday: Savor the authentic flavors of La Goulette's seafood at the renowned "Restaurant Mossli", experiencing the culinary delights of the region.
+Afternoon: Embark on a guided tour of the "Artisanat Aschi" Arts and Crafts Museum, immersing yourself in the rich traditions and artistic heritage of Tunisia.
+Evening: Head to the bustling "White &amp; Gold Sensation" discotheque, letting loose and dancing the night away in a lively and vibrant atmosphere.
+Night: Wind down the day by relaxing at the stylish "Le manoir" bar lounge in nearby Gammarth, sipping cocktails and enjoying the ambiance.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).
+La Corniche is a restaurant located in La Goulette, Tunisia. Situated near the waterfront with coordinates (36.8171992, 10.3035367), the restaurant offers a dining experience with a rating of 4.3 out of 5. Its operating hours are from 11am to 11pm daily.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7346,12 +11047,71 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in la goulette, L'Aquarius is a highly rated restaurant (4.5 stars) that's perfect for dining out. Located at 02 bis Rte de La Goulette, La Goulette 2060, it's open from 12:00-23:00. Call them at 92 514 051 for more details.</t>
+          <t>L'Aquarius is a 4.5-star restaurant located in La Goulette, Tunisia. It offers a variety of seafood and meat dishes, and is known for its succulent food and excellent service. The restaurant is open from 12pm to 11pm every day, and is located at 02 bis Rte de La Goulette.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated (4.5 stars) dining spot located at 02 bis Rte de La Goulette in La Goulette?</t>
+          <t>Day Plan:
+Morning: Exploring La Goulette Plage
+Mid-Morning: Trying local cuisine at Restaurant Le Cordoue
+Midday: Visiting Artisanat Aschi
+Afternoon: Enjoying the sun and sand at Plage La Goulette
+Evening: Relaxing with a drink at Wet Flamingo
+Night: Dancing the night away at White &amp; Gold Sensation</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+Restaurant Le Cordoue is a renowned dining destination located at 13 Av. Franklin Roosevelt in La Goulette. This esteemed establishment boasts a rating of 4.4 stars based on the experiences of its satisfied patrons. Open daily from 11 am to 11:30 pm, the restaurant invites diners to savor its culinary delights in a warm and welcoming atmosphere.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7453,12 +11213,71 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Bistro, Vin sur Vin is the place to go. Located at 20 Rue Ali Bach, La Goulette 2060, it offers a range of categories to choose from. With a rating of 4.0 based on 81 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more details, visit their website at https://www.google.com/maps/place/Vin+sur+Vin/data=!4m7!3m6!1s0x12fd4b5fa2bbb7e1:0x809643631255daf0!8m2!3d36.8155317!4d10.3055714!16s%2Fg%2F11j3rqh77n!19sChIJ4be7ol9L_RIR8NpVEmNDloA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 270 000.</t>
+          <t>Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>What highly-rated Bistro with diverse culinary options is conveniently located at 20 Rue Ali Bach in La Goulette?</t>
+          <t>Day Plan:
+Morning: Explore the bustling streets of La Goulette, taking in the local culture and street vendors.
+Mid-Morning: Visit the impressive Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+Midday: Enjoy a lunch filled with traditional cuisine at Restaurant Mossli, known for its delicious seafood dishes.
+Afternoon: Relax and recharge at Sam's Beach La Goulette, sipping on hot chocolate while enjoying the beach views.
+Evening: Immerse in the local life and culture by visiting the 4.5-star tourist attraction "La Goulette."
+Night: Head to Le manoir, a highly-rated bar lounge, for a unique and lively evening experience.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+Discover La Mer, located in La Goulette (36.8212687, 10.310061), a renowned restaurant offering an array of culinary delights. With a rating of 3.1 based on 232 reviews, La Mer is open daily from 12:00-00:00, offering a special focus on seafood dishes.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7560,12 +11379,71 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out L'antica pizzeria located at 110 Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.822562138968, 10.308755315342. For more details, visit their website at https://www.google.com/maps/place/L%27antica+pizzeria/data=!4m7!3m6!1s0x12fd4b3abfe33807:0xee6d6b22b2c3c171!8m2!3d36.8225072!4d10.308672!16s%2Fg%2F11qr3h1rpr!19sChIJBzjjvzpL_RIRccHDsiJrbe4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 465 615.</t>
+          <t>Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with a wide selection in La Goulette?</t>
+          <t>Day Plan:
+Morning: Exploring the historical La Goulette Ship Monument
+Mid-Morning: Trying local cuisine at Restaurant Mossli
+Midday: Visiting Artisanat Aschi, an Arts and Crafts Museum
+Afternoon: Enjoying scenic views at the La Goulette Plage
+Evening: Relaxing with a drink at Wet Flamingo
+Night: Participating in a lively event or activity at White &amp; Gold Sensation</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Drive Coffee Shop is located in La Goulette, Tunisia, at coordinates (36.815875813745, 10.303725297704). It is open from 6AM to 10PM and offers a variety of coffee and tea drinks. The shop is also a popular spot for breakfast and lunch, with a menu that includes sandwiches, salads, and pastries.
+**Le P. Marin** is a popular restaurant located at R894+FXV Le P. Marin, La Goulette. Known for its great ambiance and cozy atmosphere, it offers a delightful dining experience with a focus on Mediterranean and seafood cuisine. The restaurant has received positive reviews for its fresh ingredients, delicious food, and friendly service. Open 24 hours a day, Le P. Marin is a convenient and welcoming spot to enjoy a meal in the heart of La Goulette.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7671,15 +11549,72 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, Platinium Restaurant at 4 Av. Franklin Roosevelt is the place to go. 
-This restaurant is highly-rated with a score of 4.2, making it a must-visit spot. 
-It offers a range of dining options to choose from and is open during these hours: 12:00-01:00. 
-To get there, use these GPS coordinates: 36.81626297082, 10.30481337991. For more details, visit their website at https://www.google.com/maps/place/Platinium+Restaurant/data=!4m7!3m6!1s0x12fd4b2b79d58d59:0x69345d767d17b735!8m2!3d36.8176532!4d10.306002!16s%2Fg%2F11h5vjsgvq!19sChIJWY3VeStL_RIRNbcXfXZdNGk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 406 888.</t>
+          <t>In the heart of La Goulette, Platinium Restaurant welcomes you with a warm and friendly atmosphere. Located at 4 Av. Franklin Roosevelt, the restaurant invites you to savor delicious dishes in a convivial setting. With a rating of 4.2 and 52 reviews, Platinium Restaurant is a popular destination for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>If you're looking for a top-rated restaurant in La Goulette, what is the highly-rated establishment located on Av. Franklin Roosevelt?</t>
+          <t>Day Plan:
+Morning: Explore the historic "La Goulette" area, admiring the Statue of Habib Bourguiba and the beautiful coastline.
+Mid-Morning: Visit the Artisanat Aschi Museum to discover traditional Tunisian handicrafts and immerse yourself in the country's artistic heritage.
+Midday: Savor a delightful lunch featuring local cuisine at "L'antica pizzeria," renowned for its authentic Neapolitan-style pizzas.
+Afternoon: Enjoy a leisurely stroll through La Goulette Plage, browsing the vibrant market stalls for unique beachwear and souvenirs.
+Evening: Head to White &amp; Gold Sensation, a highly rated discotheque, to dance the night away and experience the city's lively nightlife.
+Night: Relax and unwind with a drink at Le Manoir, a cozy bar lounge with a welcoming ambiance, perfect for winding down your day.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe des delices is a cafe located at 57 Av. Mohamed 5, La Goulette, Tunisia. It is open from 6:00 AM to 12:00 AM and is rated 5.0 out of 5 stars on Google. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe also has a friendly staff and a comfortable atmosphere.
+Restaurant Waywa, a highly rated (4.2/5) eatery in La Goulette, Tunis, is open 24 hours a day. The restaurant specializes in seafood dishes, with "poisson" and "prix" being among the most frequently mentioned keywords in customer reviews. Conveniently located near the intersection of R884 and R86, Restaurant Waywa offers a dining experience that combines delicious food, a welcoming atmosphere, and prime accessibility.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7785,12 +11720,77 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, check out Restaurant Waywa located at R884+R86 Restaurant Waywa, Av. Franklin Roosevelt, La Goulette. This restaurant is perfect for lovers of Restaurant and has a rating of 4.2. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 36.8171268, 10.3054433. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Waywa/data=!4m7!3m6!1s0x12fd4b1cfdf26b69:0x9e2272ece5937e5a!8m2!3d36.8170356!4d10.3057719!16s%2Fg%2F11gbnvdwz3!19sChIJaWvy_RxL_RIRWn6T5exyIp4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 524 477.</t>
+          <t>Restaurant Waywa is a well-reviewed (4.2 stars from 39 reviews) restaurant located in La Goulette, Tunisia (36.8171268, 10.3054433). It specializes in seafood dishes and is known for its affordable prices. The restaurant is open 24 hours a day, making it a convenient option for travelers and locals alike.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant in La Goulette, known for its 24-hour availability?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical charm of La Goulette Shiping Cruise, a port with a rich maritime heritage.
+**Mid-Morning:**
+* Immerse yourself in culture at Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+**Midday:**
+* Savor the delectable flavors of local cuisine at Restaurant STAMBALI, a highly-rated seafood restaurant.
+**Afternoon:**
+* Relax and soak up the sun at La Goulette Plage, a beach shop offering a wide range of beach essentials.
+**Evening:**
+* Engage in outdoor activities at Goulette Village Harbor, a 4.5-star hotel complex featuring a ferry company and picturesque waterfront views.
+**Night:**
+* Experience the vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque offering a unique atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Melody Café is a local café located in La Goulette, Tunisia. This café offers its customers a wide range of food options. It also has extended work hours, from 7:00 am to 11:00 pm. Melody Café is closed on Fridays and Saturdays.
+In La goulette, on the coast of Zarzis, Tunisia, lies La goulette zarzis plage sonia. The restaurant offers a range of culinary delights and boasts a perfect rating of 5.0. The eatery is situated at the coordinates (33.5298945, 11.0882724), making it easily accessible. With a phone number of 52 610 175, reservations or inquiries can be made conveniently. The restaurant offers a warm and welcoming ambiance, perfect for a delightful dining experience.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7892,12 +11892,71 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Leblebi chez Naceur (lblby) located at 35 Av. Franklin Roosevelt. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-05:00, but closed on []. To get there, use these GPS coordinates: 36.819519594693, 10.308368788244.</t>
+          <t>Leblebi chez Naceur is a highly rated restaurant in La Goulette, Tunisia, with a 4.5-star rating on Google Maps. It is known for its affordable prices and is located at coordinates (36.819519594693, 10.308368788244). The restaurant is open from 12:00 PM to 5:00 PM on weekdays and is closed on weekends.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in La Goulette is known for its delectable cuisine and offers a memorable dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the Historical La Goulette Ship Monument
+Mid-Morning: Visit the Artisanat Aschi Arts and Crafts Museum to delve into Tunisian artistry
+Midday: Savour the flavors of Mediterranean cuisine at La Petite Etoile for a delightful lunch
+Afternoon: Enliven your senses with the vibrant vibes at White &amp; Gold Sensation discotheque
+Evening: Indulge in a romantic dinner at Restaurant Mossli, renowned for its delectable seafood offerings
+Night: Stargaze alongside the picturesque La Goulette Plage beach, taking in the serene ambiance and fresh ocean breeze</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe des delices is a cafe located at 57 Av. Mohamed 5, La Goulette, Tunisia. It is open from 6:00 AM to 12:00 AM and is rated 5.0 out of 5 stars on Google. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe also has a friendly staff and a comfortable atmosphere.
+**La Petite Etoile**, located in La Goulette, Tunisia (36.8172255, 10.2906979), is a cozy restaurant specializing in Mediterranean cuisine. With a rating of 4.1 stars and 173 reviews, it has gained a reputation for its delectable seafood dishes, particularly its poisson. The menu includes a wide range of choices, including pasta, wine, and other local delicacies. Its convenient hours (12:00 PM - 02:00 AM) and friendly staff add to the positive dining experience.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8007,14 +12066,71 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great dining experience, check out restaurant la paella located at restaurant la paella, casino, La Goulette 2060. 
-This top-rated Restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open from 12:00-01:00 during the week, but closed on . To get there, use these GPS coordinates: 36.8220926, 10.3112338. For more details, visit their website at https://www.facebook.com/search/top%3Fq%3Drestaurant%2520la%2520paella or call them at 21 171 717.</t>
+          <t>Restaurant La Paella is a highly-rated eatery situated in the La Goulette neighborhood. It boasts a menu featuring Spanish cuisine, particularly paella. The restaurant's ambiance is convivial, with live music and a bustling atmosphere. Patrons have praised its tapas selection, friendly service, and convenient location (at 36.8220926, 10.3112338).</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated dining establishment with a 4.4 rating in La Goulette?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Plage La Goulette, enjoying the beautiful beach and clear waters.
+Mid-Morning: Visiting the Artisanat Aschi, discovering traditional Tunisian handicrafts and appreciating the local culture.
+Midday: Trying local cuisine at Restaurant La Paella, indulging in authentic Spanish flavors and the lively atmosphere.
+Afternoon: Exploring the Goulette Village Harbor, marveling at the stunning views of the Mediterranean Sea and experiencing the vibrant harbor ambiance.
+Evening: Participating in a cultural immersion at the "Statue of Habib Bourguiba," learning about the historical significance and paying homage to the revered figure.
+Night: Relaxing with a drink at Wet Flamingo, enjoying the cocktails and lively ambiance, and soaking in the local nightlife.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Goletta, located in La Goulette (Tunisia) with the coordinates (36.81825, 10.3052), is a highly-rated cafe with a 4.4 rating based on 21 reviews. The cafe is open from 7:00 AM to 11:00 PM and offers a range of services. Visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ for more information.
+Restaurant La Paella is a highly-rated eatery situated in the La Goulette neighborhood. It boasts a menu featuring Spanish cuisine, particularly paella. The restaurant's ambiance is convivial, with live music and a bustling atmosphere. Patrons have praised its tapas selection, friendly service, and convenient location (at 36.8220926, 10.3112338).
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8120,12 +12236,71 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in La Goulette and looking for a top-rated restaurant, check out Restaurant les amis located at Av. Franklin Roosevelt, Restaurant les amis. This popular destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.8191947, 10.3080254. For more details, visit their website at https://www.google.com/maps/place/Restaurant+les+amis/data=!4m7!3m6!1s0x12fd4b1d1b8c62ed:0xd4841ff5fbd583a9!8m2!3d36.8186989!4d10.3073963!16s%2Fg%2F11g8zxrqd1!19sChIJ7WKMGx1L_RIRqYPV-_UfhNQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 581 589.</t>
+          <t>Restaurant les amis is a highly-rated restaurant located in La Goulette, offering delectable Tunisian cuisine. With a rating of 4.2 stars and numerous positive reviews, this establishment is a must-visit for seafood enthusiasts, as "poisson" (fish) is frequently mentioned among the reviews. Situated at the coordinates (36.8191947, 10.3080254), Restaurant les amis is open daily from 11 AM to midnight, offering a convenient dining experience for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in La Goulette, known for its diverse dining options and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore Plage La Goulette, enjoying the beautiful sandy beaches, clear waters, and picturesque views.
+Mid-Morning: Visit Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+Midday: Try local cuisine at Restaurant Waywa, specializing in seafood dishes at affordable prices.
+Afternoon: Take a guided tour of the Port La Goulette, the main port of Tunisia and one of the most important in the Mediterranean.
+Evening: Participate in the event at White &amp; Gold Sensation, a highly-rated discotheque offering a unique experience.
+Night: Relax with a drink and socialize at Le Manoir, a cozy bar lounge with a friendly atmosphere and top-notch service.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Melody Cafe is a cafe located in La Goulette, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 7:00 am to 11:00 pm, and is closed on Sundays. Melody Cafe is located at the coordinates 36.8171992, 10.3035367.
+Restaurant Waywa is a well-reviewed (4.2 stars from 39 reviews) restaurant located in La Goulette, Tunisia (36.8171268, 10.3054433). It specializes in seafood dishes and is known for its affordable prices. The restaurant is open 24 hours a day, making it a convenient option for travelers and locals alike.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8227,15 +12402,72 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in La Goulette and looking for a top-rated restaurant, look no further than HEKAYA, located at 46, Av. Franklin Roosevelt. 
-This highly-rated destination is perfect for restaurant lovers and offers a cozy and inviting atmosphere. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.820161187472, 10.308615970569. 
-For more details, visit their website at https://www.google.com/maps/place/HEKAYA/data=!4m7!3m6!1s0x12fd4b0051ff3261:0xb03ff60d1bb67cd8!8m2!3d36.8201877!4d10.3086395!16s%2Fg%2F11y3h7w_ns!19sChIJYTL_UQBL_RIR2Hy2Gw32P7A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 875 875.</t>
+          <t>HEKAYA is a 4.7-star restaurant in la goulette, Tunisia. The restaurant offers a traditional Tunisian cuisine experience in a lovely setting. The restaurant is open every day and is closed on all public holidays.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a cozy atmosphere in La Goulette that's highly recommended with a 4.7 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic La Goulette Village Harbor and learn about its maritime significance.
+Mid-Morning: Visit the Artisanat Aschi Arts and Crafts Museum to discover the diverse traditional Tunisian handicrafts.
+Midday: Try the local cuisine at Restaurant Mossli, a seafood restaurant with high ratings and positive reviews.
+Afternoon: Relax and enjoy the sun and sand at La Goulette Plage, a beach shop that offers a wide range of beach essentials.
+Evening: Take a guided tour of the iconic Statue of Habib Bourguiba, a national landmark commemorating the first president of Tunisia.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque known for its unique atmosphere and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Yasmine is located in La Goulette, Tunisia. It is a popular cafe that serves a variety of drinks and snacks. The cafe is located at 36.854049683015, 10.260930317576 and is open from 07:00-21:00.
+La Spigola is a 4-star rated restaurant located in La Goulette, Tunisia. It is open from 12:00 pm to 1:00 am and is known for its Italian cuisine, especially its seafood dishes. The restaurant has 495 reviews, with many customers praising the quality of the food, the wine selection, and the service. La Spigola is a popular destination for both locals and tourists, and it offers a great dining experience in a beautiful setting.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8341,14 +12573,77 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a cozy spot to enjoy a warm cup of hot chocolate, head to Sam'S BEACH LA GOULETTE, located at 30 Av. De La Republique. 
-This top-rated cafe is perfect for chocolate lovers and offers a range of delectable crepes and teas to complement your drink. 
-With a rating of 4.3, it's a must-visit spot for those seeking a relaxing and satisfying experience. It's open from 07:00 AM to 08:30 PM daily. To get there, use these GPS coordinates: 36.816176388793, 10.306199300245. For more details, visit their website or call them at 24 170 701.</t>
+          <t>Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly-rated cafe that serves delicious hot chocolate and offers a cozy atmosphere, with hours of operation from 07:00 AM to 08:30 PM daily?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Goulette Village Harbor, offering stunning Mediterranean Sea views.
+**Mid-Morning:**
+- Try local cuisine at Restaurant Mossli, renowned for its delectable seafood dishes.
+**Midday:**
+- Visit the La Goulette Ship Monument, a historical landmark with critical acclaim.
+**Afternoon:**
+- Enjoy cocktails and vibrant nightlife at Wet Flamingo, a highly-rated bar with a lively atmosphere.
+**Evening:**
+- Shop for souvenirs and traditional handicrafts at the Artisanat Aschi Arts and Crafts Museum.
+**Night:**
+- Experience the energetic ambiance and unique decor of White &amp; Gold Sensation, a highly-rated discotheque.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Yasmine is located in La Goulette, Tunisia. It is a popular cafe that serves a variety of drinks and snacks. The cafe is located at 36.854049683015, 10.260930317576 and is open from 07:00-21:00.
+Karaka's Restaurant Lounge is a highly-rated restaurant located in La Goulette, Tunisia, with a rating of 5.0 out of 4 reviews. It offers a variety of dining options, including lunch and dinner, and is open from 12:00 pm to 10:30 pm daily. Karaka's is located at the coordinates (36.858995, 10.2568093).
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8454,12 +12749,81 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Restaurant Chez BARHOUM located at R8H7+22H Restaurant Chez BARHOUM, La Goulette. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-02:00. To get there, use these GPS coordinates: 36.8275081, 10.3125504. For more details, call them at 98 654 022.</t>
+          <t>Restaurant Chez BARHOUM is a highly-rated restaurant located in La Goulette, Tunisia. Known for its excellent dining experience, it offers a wide range of culinary delights to satisfy even the most discerning palate. With its convenient location at coordinates (36.8275081, 10.3125504), the establishment invites patrons to immerse themselves in a gastronomic journey.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated restaurant located in La Goulette with a 4.5 rating, perfect for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette, a charming tourist destination with historical significance. Immerse yourself in the local culture at Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+Mid-Morning: Visit the La Goulette Port, a bustling ferry terminal that connects you to the Mediterranean Sea. Capture panoramic views of the area and enjoy a leisurely stroll along the promenade.
+Midday: Indulge in a delightful lunch at Restaurant Mossli, renowned for its authentic seafood dishes. Savor the flavors of the sea while relishing the warm hospitality of the restaurant.
+Afternoon: Engage in outdoor activities at La Goulette Plage, an ideally located beach shop. Rent equipment and enjoy water sports, or simply soak up the sun and enjoy the refreshing Mediterranean breeze.
+Evening: As the sun sets, embark on a guided tour of La Goulette Ship Monument, a renowned historical landmark that holds significant cultural value. Delve into the rich maritime history of the region.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation discotheque. Immerse yourself in the lively atmosphere, dance to the rhythm of local music, and create unforgettable memories.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.
+Station 24 -La Goulette is a restaurant located in la goulette, Tunisia. It is open 24 hours a day and has a rating of 5.0 out of 5 on Google Maps. The restaurant's phone number is 21 467 467 and its address is 92 Av. De La Republique, La Goulette 2060. The restaurant's main category is Restaurant and its coordinates are (36.820012341997, 10.309142490247).
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8565,14 +12929,77 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a superb Restaurant experience, check out Restaurant Le Cordoue located at 13 Av. Franklin Roosevelt, La Goulette 2060. 
-This top-rated destination is perfect for food lovers and offers a range of Restaurant options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-23:30. To get there, use these GPS coordinates: 36.8170198, 10.3057291. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Le+Cordoue/data=!4m7!3m6!1s0x12fd4b1d4d5282e7:0x6c456a5e220fb37f!8m2!3d36.8170461!4d10.3057647!16s%2Fg%2F11f3b0d980!19sChIJ54JSTR1L_RIRf7MPIl5qRWw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 71 735 476.</t>
+          <t>Restaurant Le Cordoue, located at 13 Av. Franklin Roosevelt, La Goulette 2060, is a top-rated (4.4 stars) restaurant. It offers a wide range of dining options, with an emphasis on Mediterranean cuisine. The restaurant is conveniently located near the La Goulette port, making it easily accessible from both land and sea.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly-rated restaurant with a rating of 4.4, offering a range of dining options and conveniently located at GPS coordinates 36.8170198, 10.3057291?</t>
+          <t>Day Plan:
+Morning:
+- Start the day by exploring the Port La Goulette, a bustling maritime port with various facilities. (Port La Goulette)
+Mid-Morning:
+- Visit the nearby Artisanat Aschi, an Arts and Crafts Museum that showcases traditional Tunisian handicrafts. (Artisanat Aschi)
+Midday:
+- Savor delicious seafood dishes at **Restaurant Mossli**, a reputable seafood restaurant in La Goulette. (**Restaurant Mossli**)
+Afternoon:
+- Take a leisurely stroll along Plage La Goulette, a picturesque beach with beautiful sands and clear waters. (Plage La Goulette)
+Evening:
+- Indulge in the local nightlife by heading to White &amp; Gold Sensation, a discotheque known for its vibrant atmosphere. (White &amp; Gold Sensation)
+Night:
+- Wind down the evening at Le Manoir, a cozy bar lounge with a friendly ambiance and top-notch service. (Le Manoir)</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe des delices is a cafe located at 57 Av. Mohamed 5, La Goulette, Tunisia. It is open from 6:00 AM to 12:00 AM and is rated 5.0 out of 5 stars on Google. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe also has a friendly staff and a comfortable atmosphere.
+La Corniche is a restaurant located in La Goulette, Tunisia. Situated near the waterfront with coordinates (36.8171992, 10.3035367), the restaurant offers a dining experience with a rating of 4.3 out of 5. Its operating hours are from 11am to 11pm daily.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8678,12 +13105,78 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delicious pizza, check out The NINETY-NINE located at 97 Av. Habib Bourghuiba, La Goulette. This top-rated pizzeria is a must-visit spot with a rating of 4.0. The NINETY-NINE is open from 11:00-23:00 during weekdays. To get there, use these GPS coordinates: 36.825303694618, 10.311038340587. For more details, visit their website at https://www.google.com/maps/place/The+NINETY-NINE/data=!4m7!3m6!1s0x12fd4bdef6887d67:0xe5c2dccb8c4765!8m2!3d36.8253062!4d10.3109476!16s%2Fg%2F11jr_sw8_s!19sChIJZ32I9t5L_RIRZUeMy9zC5QA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 032 177.</t>
+          <t>The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>If you're exploring La Goulette and craving a top-rated pizza experience, where can you find The NINETY-NINE, known for its exceptional pizza?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the vibrant local market in La Goulette for authentic souvenirs and fresh produce.
+**Mid-Morning:**
+- Visit the Artisanat Aschi Arts and Crafts Museum to admire traditional Tunisian handicrafts.
+**Midday:**
+- Savor a delicious seafood lunch at Restaurant Mossli, known for its delectable dishes.
+**Afternoon:**
+- Take a leisurely stroll along La Goulette Plage, enjoying the scenic views and indulging in beach activities.
+**Evening:**
+- Immerse yourself in the lively atmosphere of Le Manoir, a stylish bar lounge offering a memorable experience.
+**Night:**
+- Experience the vibrant nightlife at White &amp; Gold Sensation, a top-rated discotheque in the heart of La Goulette.</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+Restaurant Chez BARHOUM is a highly-rated restaurant located in La Goulette, Tunisia. Known for its excellent dining experience, it offers a wide range of culinary delights to satisfy even the most discerning palate. With its convenient location at coordinates (36.8275081, 10.3125504), the establishment invites patrons to immerse themselves in a gastronomic journey.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8789,12 +13282,80 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delicious dining experience, check out quedamos located at R884+R47 quedamos, Av. Franklin Roosevelt, La Goulette. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.820285616825, 10.309149813982. For more details, visit their website at https://maps.app.goo.gl/sV5eLUV5tSoXK3nP6 or call them at 29 462 516.</t>
+          <t>Quedamos is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located at the coordinates (36.820285616825, 10.309149813982).</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find the highly-rated restaurant, Quedamos, known for its exceptional culinary experience and diverse dining options?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore La Goulette, a charming port city known for its picturesque harbor and historical landmarks.
+**Mid-Morning:**
+- Visit Artisanat Aschi, a renowned Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+**Midday:**
+- Try local cuisine at L'Aquarius, a 4.5-star seafood restaurant offering succulent dishes.
+**Afternoon:**
+- Stroll through La Goulette Plage, a beach shop offering a wide selection of beach essentials.
+- Relax at Sam's Beach La Goulette, a popular cafe serving hot chocolates, crepes, and teas.
+**Evening:**
+- Visit the Statue of Habib Bourguiba, a commemorative monument honoring the first president of Tunisia.
+- Embark on a guided tour of the Goulette Shiping Cruise port to learn about its services and operations.
+**Night:**
+- Indulge in a memorable dinner at La Goulette, a popular destination with a 4.5-star rating and scenic beach views.
+- Experience the lively atmosphere at Le Manoir, a cozy bar lounge with a friendly ambiance and top-notch service.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Mazaj Cafe is a cafe located in La Goulette, Tunis, Tunisia. The cafe has a 4.1-star rating on Google and is open from 6:00 AM to 1:00 AM. Mazaj Cafe serves coffee, tea, and pastries. The cafe is located at the following coordinates: (36.823081683105, 10.30961397621).
+L'Aquarius is a 4.5-star restaurant located in La Goulette, Tunisia. It offers a variety of seafood and meat dishes, and is known for its succulent food and excellent service. The restaurant is open from 12pm to 11pm every day, and is located at 02 bis Rte de La Goulette.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8896,12 +13457,71 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in La Goulette, Restaurant Mossli is a must-visit spot for seafood lovers. Located on 17 Av. Franklin Roosevelt, it offers a top-rated dining experience with a rating of 4.4. Call them at 98 259 176 for reservations or visit their website for more details.</t>
+          <t>Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find Restaurant Mossli, a top-rated seafood destination with high ratings and a friendly atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Plage La Goulette (36.8224029, 10.3129791). Relax on its sandy shores, soak up the sun, and savor the breathtaking sea views.
+Mid-Morning: Immerse yourself in the rich history and culture at Artisanat Aschi (36.816346083634, 10.30490716542), an Arts and Crafts Museum. Discover the vibrant traditions of Tunisian craftsmanship, from exquisite pottery to intricate textiles.
+Midday: Savor the delectable seafood cuisine at Restaurant STAMBALI (13 Av. Franklin Roosevelt), a culinary haven rated 4.5 stars for its fresh catches and authentic flavors.
+Afternoon: Unwind at Astoria Coffee (36.821202134027, 10.309845129925), a cozy teahouse with a welcoming ambiance. Sip on fragrant teas and indulge in delectable pastries while absorbing the local atmosphere.
+Evening: Embark on a guided tour of the La Goulette Shiping Cruise (36.81825, 10.3052), a bustling port that offers a glimpse into the maritime activities of the region. Learn about the vibrant shipping industry and witness the comings and goings of vessels.
+Night: Experience the lively ambiance of Le P. Marin (R894+FXV Le P. Marin), a popular restaurant known for its delicious Mediterranean and seafood dishes. Relish the flavorsome cuisine and enjoy the warm hospitality as you immerse yourself in the local dining scene.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Mazaj Cafe is a cafe located in La Goulette, Tunis, Tunisia. The cafe has a 4.1-star rating on Google and is open from 6:00 AM to 1:00 AM. Mazaj Cafe serves coffee, tea, and pastries. The cafe is located at the following coordinates: (36.823081683105, 10.30961397621).
+**Le P. Marin** is a popular restaurant located at R894+FXV Le P. Marin, La Goulette. Known for its great ambiance and cozy atmosphere, it offers a delightful dining experience with a focus on Mediterranean and seafood cuisine. The restaurant has received positive reviews for its fresh ingredients, delicious food, and friendly service. Open 24 hours a day, Le P. Marin is a convenient and welcoming spot to enjoy a meal in the heart of La Goulette.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9003,12 +13623,71 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, check out Le P. Marin located at R894+FXV Le P. Marin. With a rating of 4.1, it's a must-visit spot for Restaurant lovers. It's open 24 hours a day, so you can drop in anytime. To get there, use these GPS coordinates: 36.8171992, 10.3035367.</t>
+          <t>**Le P. Marin** is a popular restaurant located at R894+FXV Le P. Marin, La Goulette. Known for its great ambiance and cozy atmosphere, it offers a delightful dining experience with a focus on Mediterranean and seafood cuisine. The restaurant has received positive reviews for its fresh ingredients, delicious food, and friendly service. Open 24 hours a day, Le P. Marin is a convenient and welcoming spot to enjoy a meal in the heart of La Goulette.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly rated restaurant (4.1) that is open 24 hours a day, conveniently located with GPS coordinates 36.8171992, 10.3035367?</t>
+          <t>Day Plan:
+Morning: Explore the historic "La Goulette" tourist attraction, offering insights into local life and culture.
+Mid-Morning: Delight in the delicious hot chocolate and cozy ambiance at Sam's Beach La Goulette, renowned for its welcoming atmosphere.
+Midday: Savor a tantalizing seafood lunch at Restaurant STAMBALI, a highly-rated eatery specializing in fresh seafood.
+Afternoon: Explore the Artisanat Aschi Arts and Crafts Museum, showcasing a diverse collection of traditional Tunisian handicrafts.
+Evening: Embark on a scenic walk along La Goulette Plage, admiring the tranquil views and selecting souvenirs from the beach shops.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation discotheque, known for its exclusive ambiance and lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Istanbul Cafe, located in La Goulette, is a cafe with a rating of 4.3 stars based on 3 reviews. It is open from 6:00 AM to midnight, and offers a variety of services, including food and drinks. The cafe is located at 36.814552814786 latitude and 10.301428102672 longitude.
+Restaurant La Guitoune, a highly-rated restaurant located in La Goulette, Tunisia, with a rating of 4.6 stars on Google reviews, is a great place to enjoy a meal. Open from 11:00 AM to 11:00 PM, Restaurant La Guitoune offers a variety of dishes and is known for its excellent service. With its convenient location at 17 Av. Franklin Roosevelt, La Goulette, and its phone number 24 813 503, it's easy to find and contact the restaurant for reservations or inquiries.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9110,14 +13789,71 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Corniche located at R884+MF6 La Corniche, Rue El Amir Abdelkader, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website or call them at  .</t>
+          <t>La Corniche is a restaurant located in La Goulette, Tunisia. Situated near the waterfront with coordinates (36.8171992, 10.3035367), the restaurant offers a dining experience with a rating of 4.3 out of 5. Its operating hours are from 11am to 11pm daily.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>What is the highly-rated destination in La Goulette known for its excellent dining options?</t>
+          <t>Day Plan:
+Morning: Visit Artisanat Aschi to admire traditional Tunisian handicrafts.
+Mid-Morning: Explore the La Goulette Ship Monument and delve into the maritime history of La Goulette.
+Midday: Enjoy a delightful lunch at Restaurant La Paella, savoring the authentic flavors of Spanish cuisine.
+Afternoon: Take a refreshing stroll along La Goulette Plage, indulging in the coastal beauty of La Goulette.
+Evening: Immerse yourself in the vibrant atmosphere of White &amp; Gold Sensation Discotheque, dancing the night away.
+Night: Head to Wet Flamingo Bar for a memorable evening filled with delectable cocktails and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Yasmine is located in La Goulette, Tunisia. It is a popular cafe that serves a variety of drinks and snacks. The cafe is located at 36.854049683015, 10.260930317576 and is open from 07:00-21:00.
+Restaurant La Paella is a highly-rated eatery situated in the La Goulette neighborhood. It boasts a menu featuring Spanish cuisine, particularly paella. The restaurant's ambiance is convivial, with live music and a bustling atmosphere. Patrons have praised its tapas selection, friendly service, and convenient location (at 36.8220926, 10.3112338).
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9223,12 +13959,71 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something delicious to eat, check out Matelot located at R895+G26 Matelot, Av. Franklin Roosevelt. This top-rated Pizzeria offers a range of pizzas to choose from. With a rating of 4.3, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.818874397696, 10.307236309306. For more details, visit their website at https://www.google.com/maps/place/Matelot/data=!4m7!3m6!1s0x12fd4b1cfdf26b69:0x4b1251d1e5c3f9a5!8m2!3d36.8187999!4d10.3075022!16s%2Fg%2F11c6_tqrb2!19sChIJaWvy_RxL_RIRpfnD5dFREks?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 053 743.</t>
+          <t>Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with 24-hour service, located near La Goulette?</t>
+          <t>Day Plan:
+Morning: Exploring Plage La Goulette
+Mid-Morning: Enjoying Scenic Views at Goulette Plage
+Midday: Trying Local Cuisine at Le P. Marin
+Afternoon: Relaxing with a Hot Chocolate at Sam's Beach La Goulette
+Evening: Visiting the Historical La Goulette Ship Monument
+Night: Experiencing the Lively Atmosphere at White &amp; Gold Sensation</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+**Le P. Marin** is a popular restaurant located at R894+FXV Le P. Marin, La Goulette. Known for its great ambiance and cozy atmosphere, it offers a delightful dining experience with a focus on Mediterranean and seafood cuisine. The restaurant has received positive reviews for its fresh ingredients, delicious food, and friendly service. Open 24 hours a day, Le P. Marin is a convenient and welcoming spot to enjoy a meal in the heart of La Goulette.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9326,14 +14121,77 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Resto al ahbab located at 17 Av. Franklin Roosevelt, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.818333303937, 10.307128182755. For more details, visit their link at https://www.google.com/maps/place/Resto+al+ahbab/data=!4m7!3m6!1s0x12fd4b93c988f7cb:0xfd3ce4805a5dd369!8m2!3d36.8187975!4d10.3071875!16s%2Fg%2F11fr2xwqmx!19sChIJy_eIyZNL_RIRadNdWoDkPP0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Resto al ahbab is a restaurant located in La Goulette, Tunisia. The is rated 4.0 and has 5 reviews. The main category is Restaurant and it offers a variety of dishes. The restaurant is located at the following address: 17 Av. Franklin Roosevelt, La Goulette. The coordinates are (36.818333303937, 10.307128182755).</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a top-rated restaurant destination with GPS coordinates 36.818333303937, 10.307128182755 and a rating of 4.0?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the vibrant Port La Goulette, the main port of Tunisia and a hub for fishing, tourism, and transportation.
+**Mid-Morning:**
+- Visit the nearby "Statue of Habib Bourguiba" for a glimpse of Tunisian history and admire the stunning views of the Gulf of Tunis.
+**Midday:**
+- Indulge in a delectable seafood lunch at Restaurant STAMBALI, rated 4.5 stars for its exceptional culinary delights.
+**Afternoon:**
+- Stroll through La Goulette's traditional souk, "La Goulette," to experience the local life and culture, and perhaps purchase some unique souvenirs.
+**Evening:**
+- Relax and enjoy the beautiful ambiance of Astoria Coffee, a highly-rated teahouse offering a variety of teas, coffees, and pastries.
+**Night:**
+- Head to Le manoir, a 5-star bar lounge, to unwind with a refreshing drink and soak in the lively atmosphere of Gammarth.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.
+Discover La Mer, located in La Goulette (36.8212687, 10.310061), a renowned restaurant offering an array of culinary delights. With a rating of 3.1 based on 232 reviews, La Mer is open daily from 12:00-00:00, offering a special focus on seafood dishes.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9435,14 +14293,71 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Karaka's Restaurant Lounge located at R873+VPX Karaka's Restaurant Lounge. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-22:30. To get there, use these GPS coordinates: 36.858995, 10.2568093.</t>
+          <t>Karaka's Restaurant Lounge is a highly-rated restaurant located in La Goulette, Tunisia, with a rating of 5.0 out of 4 reviews. It offers a variety of dining options, including lunch and dinner, and is open from 12:00 pm to 10:30 pm daily. Karaka's is located at the coordinates (36.858995, 10.2568093).</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Where is the top-rated Karaka's Restaurant Lounge in La Goulette that caters to Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historic La Goulette Village Harbor (a hotel complex with ferry services and stunning views of the Mediterranean Sea).
+Mid-Morning: Visit the nearby Artisanat Aschi, an Arts and Crafts Museum that showcases traditional Tunisian handicrafts.
+Midday: Try local cuisine at Restaurant Mossli, known for its delicious seafood dishes and friendly service.
+Afternoon: Relax on La Goulette Plage, a beach shop offering a wide range of beach items.
+Evening: Explore the Goulette Neuve train station, offering convenient access to public transportation services.
+Night: Experience the vibrant nightlife at White &amp; Gold Sensation, a highly rated discotheque with a unique atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Goletta, located in La Goulette (Tunisia) with the coordinates (36.81825, 10.3052), is a highly-rated cafe with a 4.4 rating based on 21 reviews. The cafe is open from 7:00 AM to 11:00 PM and offers a range of services. Visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ for more information.
+Restaurant Le Cordoue is a renowned dining destination located at 13 Av. Franklin Roosevelt in La Goulette. This esteemed establishment boasts a rating of 4.4 stars based on the experiences of its satisfied patrons. Open daily from 11 am to 11:30 pm, the restaurant invites diners to savor its culinary delights in a warm and welcoming atmosphere.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9544,15 +14459,71 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, check out Angelina La Goulette Restaurant &amp; Lounge located at 2 Av. Franklin Roosevelt, La Goulette. 
-This destination is perfect for Restaurant lovers and offers a range of food options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on unknown days. 
-To get there, use these GPS coordinates: 48.8668612, 2.3764916</t>
+          <t>Angelina La Goulette Restaurant &amp; Lounge is a restaurant located at 2 Av. Franklin Roosevelt, La Goulette. It's a popular spot for locals and tourists alike, offering a variety of dishes in a relaxed and friendly atmosphere. The restaurant is open from 12:00-00:00 every day, and it's closed on Sundays.</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in La Goulette with a 4.0 rating, offering a variety of dining options and a convenient location?</t>
+          <t>Day Plan:
+Morning: Explore Goulette Village Harbor, a ferry company that also provides hotel accommodations.
+Mid-Morning: Visit the Artisanat Aschi, an Arts and Crafts Museum that offers a wide range of traditional Tunisian handicrafts.
+Midday: Try local cuisine at Restaurant La Guitoune, a highly-rated restaurant with excellent service.
+Afternoon: Take a walk along La Goulette Plage, a beach shop that offers beach items, and enjoy the beautiful La Goulette Fontaine, a tourist attraction with a fountain and a relaxing atmosphere.
+Evening: Join the White &amp; Gold Sensation discotheque for a unique experience suggested by its name.
+Night: Visit Le manoir, a bar lounge in Gammarth that offers services and is highly rated by locals.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.
+Restaurant La Guitoune, a highly-rated restaurant located in La Goulette, Tunisia, with a rating of 4.6 stars on Google reviews, is a great place to enjoy a meal. Open from 11:00 AM to 11:00 PM, Restaurant La Guitoune offers a variety of dishes and is known for its excellent service. With its convenient location at 17 Av. Franklin Roosevelt, La Goulette, and its phone number 24 813 503, it's easy to find and contact the restaurant for reservations or inquiries.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9654,12 +14625,71 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant, check out Station 24 -La Goulette located at 92 Av. De La Republique, La Goulette 2060. This destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.820012341997, 10.309142490247. For more details, call them at 21 467 467.</t>
+          <t>Station 24 -La Goulette is a restaurant located in la goulette, Tunisia. It is open 24 hours a day and has a rating of 5.0 out of 5 on Google Maps. The restaurant's phone number is 21 467 467 and its address is 92 Av. De La Republique, La Goulette 2060. The restaurant's main category is Restaurant and its coordinates are (36.820012341997, 10.309142490247).</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a top-rated Restaurant open 24 hours offering a must-visit dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the bustling maritime Port La Goulette, admiring its facilities and connecting with locals.
+Mid-Morning: Immerse yourself in the local culture at Artisanat Aschi Arts and Crafts Museum, discovering stunning traditional Tunisian handicrafts.
+Midday: Savor delectable seafood dishes at Restaurant Mossli, relishing in the warm hospitality and flavors of the region.
+Afternoon: Take a leisurely stroll along La Goulette Plage, enjoying the refreshing sea breeze and exploring the variety of beach items.
+Evening: Participate in a guided tour of the "Statue of Habib Bourguiba," marveling at its architectural grandeur and gaining insights into Tunisian history.
+Night: Experience the vibrant nightlife of White &amp; Gold Sensation, indulging in its unique ambiance and enjoying the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+Chicago La Goulette is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood and meats. The restaurant is located at 2 Av. Franklin Roosevelt and is open from 12:00 to 00:00. It is closed on Sundays. The restaurant has 16 reviews and an average rating of 4.3 out of 5 stars.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9765,14 +14795,77 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Chez FEHMI CREPES/GAUFRES located at R895+66J Chez FEHMI CREPES/GAUFRES, Av. De La Republique, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-00:00, but closed on . To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website or call them at 54 542 095.</t>
+          <t>Chez FEHMI CREPES/GAUFRES is a restaurant located in la goulette, Tunisia. It is open from 17:00 to 00:00, and it is closed on no days. It is rated 5.0 out of 5 by 1 reviewer, and it offers crepes and waffles. The restaurant is located at R895+66J Chez FEHMI CREPES/GAUFRES, Av. De La Republique, La Goulette.</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a range of options, located in La Goulette and boasting a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: **Explore Goulette Shiping Cruise**
+- Embark on a tour of the historic port and learn about its vital role in maritime activities.
+Mid-Morning: **Try local cuisine at Restaurant STAMBALI**
+- Savor the delectable seafood dishes and immerse yourself in the vibrant local culinary scene.
+Midday: **Visit La Goulette Ship Monument**
+- Admire the architectural beauty and historical significance of this iconic monument that celebrates La Goulette's maritime heritage.
+Afternoon: **Enjoy scenic views at Plage La Goulette**
+- Take a leisurely stroll along the stunning sandy beach and relish the breathtaking views of the Mediterranean Sea.
+Evening: **Relax with cocktails at White &amp; Gold Sensation**
+- Dance the night away at this lively discotheque and experience the vibrant nightlife of La Goulette.
+Night: **Engage in cultural immersion at Artisanat Aschi**
+- Explore this enchanting museum and discover the rich heritage of Tunisian handicrafts, including exquisite pottery, textiles, jewelry, and woodwork.</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.
+La Corniche is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located on the waterfront, and it offers stunning views of the Mediterranean Sea. La Corniche is highly rated by its customers, and it is a popular destination for both locals and tourists.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9874,12 +14967,81 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La goulette zarzis plage sonia located at Chat sonia, Zarzis 4170. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, call them at 52 610 175.</t>
+          <t>In La goulette, on the coast of Zarzis, Tunisia, lies La goulette zarzis plage sonia. The restaurant offers a range of culinary delights and boasts a perfect rating of 5.0. The eatery is situated at the coordinates (33.5298945, 11.0882724), making it easily accessible. With a phone number of 52 610 175, reservations or inquiries can be made conveniently. The restaurant offers a warm and welcoming ambiance, perfect for a delightful dining experience.</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination with a wide selection of restaurants in La Goulette, known for its excellent dining options?</t>
+          <t>Day Plan:
+Morning: Explore Goulette Shiping Cruise to see the port and its activities.
+Mid-Morning: Try local cuisine at Restaurant Mossli for a taste of La Goulette's seafood delicacies.
+Midday: Visit La Goulette Plage to enjoy the beach and purchase beach essentials.
+Afternoon: Engage in outdoor activities like swimming or fishing at Sam's Beach La Goulette for some fun in the sun.
+Evening: Experience cultural immersion at Artisanat Aschi to discover traditional Tunisian handicrafts and arts.
+Night: Relax with a drink and enjoy the cozy ambiance at Le Manoir for a perfect end to the day.</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.
+HEKAYA is a 4.7-star restaurant in la goulette, Tunisia. The restaurant offers a traditional Tunisian cuisine experience in a lovely setting. The restaurant is open every day and is closed on all public holidays.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9977,12 +15139,71 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in la goulette and searching for a top-rated Guichet de gare, Arret de train Kram at R8P8+9H2 Arret de train Kram, Av. du Parc is the place to be. With a rating of 3.7, it's a must-visit destination for Guichet de gare lovers. For more information, visit their website: https://www.google.com/maps/place/Arr%C3%AAt+de+train+Kram/data=!4m7!3m6!1s0x12fd4b846e7e2079:0x6421ef78ae4a7d12!8m2!3d36.835896!4d10.3163947!16s%2Fg%2F11sk7grkfy!19sChIJeSB-boRL_RIREn1KrnjvIWQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>Where can you find the highest-rated Guichet de gare in La Goulette, offering a must-visit experience with a 3.7 rating?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette, the picturesque coastal town.
+Mid-Morning: Visit the Artisanat Aschi, an art and crafts museum showcasing traditional Tunisian handicrafts.
+Midday: Savour the delicious seafood dishes at Restaurant Mossli, a renowned seafood restaurant.
+Afternoon: Enjoy the sun and sand at La Goulette Plage, a beach shop offering a wide range of beach items.
+Evening: Experience the vibrant atmosphere at White &amp; Gold Sensation, a highly-rated discotheque.
+Night: Immerse in the local nightlife at Wet Flamingo, a 4.2-star rated bar known for its cocktails and energetic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Drive Coffee Shop is located in La Goulette, Tunisia, at coordinates (36.815875813745, 10.303725297704). It is open from 6AM to 10PM and offers a variety of coffee and tea drinks. The shop is also a popular spot for breakfast and lunch, with a menu that includes sandwiches, salads, and pastries.
+La Spigola is a 4-star rated restaurant located in La Goulette, Tunisia. It is open from 12:00 pm to 1:00 am and is known for its Italian cuisine, especially its seafood dishes. The restaurant has 495 reviews, with many customers praising the quality of the food, the wine selection, and the service. La Spigola is a popular destination for both locals and tourists, and it offers a great dining experience in a beautiful setting.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10076,15 +15297,71 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a Gare, check out Gare Port La Goulette - Sud located at Gare Port La Goulette - Sud. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 4.1, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.8072703, 10.3075218. For more details, visit their website at https://www.google.com/maps/place/Gare+Port+La+Goulette+-+Sud/data=!4m7!3m6!1s0x12fd4a5ed529ad13:0xf71648aaed743fa!8m2!3d36.8051055!4d10.2880257!16s%2Fg%2F1hf6jhvt3!19sChIJE60p1V5K_RIR-kPXropkcQ8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find Gare Port La Goulette - Sud, a highly-rated destination boasting a range of Gare options and a 4.1 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic Port La Goulette, admiring its vibrant maritime atmosphere.
+Mid-Morning: Visit the Artisanat Aschi for a glimpse into traditional Tunisian handicrafts.
+Midday: Indulge in local cuisine at Restaurant STAMBALI, renowned for its exceptional seafood dishes.
+Afternoon: Head to Plage La Goulette and enjoy the sun, sand, and refreshing waters.
+Evening: Experience the lively ambiance of Vin sur Vin, known for its charming atmosphere and diverse menu.
+Night: Discover the vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque with an energetic vibe.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Baba Azizi La Goulette is a cafe located in La Goulette, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 14 Av. Habib Bourghuiba, La Goulette and can be contacted at 20 335 001.
+Restaurant Djerbien The House - lHwsh is a restaurant located in la goulette, Tunisia. It offers a variety of Tunisian dishes, including couscous, pain, and entrees. The restaurant has received positive reviews for its food, service, and atmosphere. It is closed on Mondays and is open from 12:30 to 22:30 on other days. The restaurant is located at 43 Av. Franklin Roosevelt, La Goulette.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10182,12 +15459,71 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated train station, check out Goulette Neuve at Goulette Neuve, La Goulette. It's a must-visit spot with a rating of 4.3. For more details, visit their website at https://www.google.com/maps/place/Goulette+Neuve/data=!4m7!3m6!1s0x12fd4b1d82d56503:0xb3e6ebedffc33eca!8m2!3d36.8199141!4d10.3056292!16s%2Fg%2F1tg97wwm!19sChIJA2XVgh1L_RIRyj7D_-3r5rM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated train station with a 4.3 rating in la Goulette?</t>
+          <t>Day Plan:
+Morning: Explore Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+Mid-Morning: Visit Istanbul Cafe in La Goulette for a delightful breakfast and aromatic coffee.
+Midday: Explore La Goulette Beach, indulge in sunbathing, swimming, or indulge in beach activities.
+Afternoon: Take a guided tour of the historic La Goulette Ship Monument, offering insights into the maritime history of the region.
+Evening: Experience the vibrant atmosphere at White &amp; Gold Sensation Discotheque, renowned for its lively ambiance and entertainment.
+Night: Indulge in a delectable dinner at Matelot Pizzeria, known for its 24-hour service and delicious pizzas.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Istanbul Cafe, located in La Goulette, is a cafe with a rating of 4.3 stars based on 3 reviews. It is open from 6:00 AM to midnight, and offers a variety of services, including food and drinks. The cafe is located at 36.814552814786 latitude and 10.301428102672 longitude.
+Restaurant La Paella is a highly-rated eatery situated in the La Goulette neighborhood. It boasts a menu featuring Spanish cuisine, particularly paella. The restaurant's ambiance is convivial, with live music and a bustling atmosphere. Patrons have praised its tapas selection, friendly service, and convenient location (at 36.8220926, 10.3112338).
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10289,14 +15625,72 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a reliable gas station, check out OLA located at Rte de La Goulette. 
-This top-rated destination is perfect for drivers and offers a range of services to choose from. 
-With a rating of 3.8, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website at https://www.google.com/maps/place/OLA/data=!4m7!3m6!1s0x12e2b4b6fc55a5cd:0xd236830fef03a90c!8m2!3d36.8546398!4d10.3307798!16s%2Fg%2F11b76dbxss!19sChIJzaVV_La04hIRDKkD7w-DNtI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly-rated gas station open 24/7?</t>
+          <t>Day Plan:
+Morning: Exploring La Goulette Village Harbor, admiring stunning Mediterranean Sea views.
+Mid-Morning: Trying local cuisine at Restaurant Mossli, savoring the authentic flavors of Tunisian cuisine.
+Midday: Visiting Artisanat Aschi, discovering traditional Tunisian handicrafts and local artistry.
+Afternoon: Enjoying a relaxing walk at La goulette Fontaine, capturing the beauty of the historic fountain and serene atmosphere.
+Evening: Participating in a guided tour of the Goulette Neuve transportation service, gaining insights into local transportation.
+Night: Experiencing the vibrant ambiance at Wet Flamingo, indulging in cocktails and mingling with the local crowd.</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Yasmine is located in La Goulette, Tunisia. It is a popular cafe that serves a variety of drinks and snacks. The cafe is located at 36.854049683015, 10.260930317576 and is open from 07:00-21:00.
+Restaurant les amis is a highly-rated restaurant located in La Goulette, offering delectable Tunisian cuisine. With a rating of 4.2 stars and numerous positive reviews, this establishment is a must-visit for seafood enthusiasts, as "poisson" (fish) is frequently mentioned among the reviews. Situated at the coordinates (36.8191947, 10.3080254), Restaurant les amis is open daily from 11 AM to midnight, offering a convenient dining experience for locals and tourists alike.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10394,12 +15788,81 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out TGM Station Kheireddine located at R8H6+FG7 TGM Station Kheireddine. This top-rated destination is perfect for Depot ferroviaire lovers. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.8286131, 10.3133765. For more details, visit their website at https://www.google.com/maps/place/TGM+Station+Kheireddine/data=!4m7!3m6!1s0x12fd4b044ba05ff7:0x23dcbb45bd145098!8m2!3d36.8286555!4d10.3113055!16s%2Fg%2F11q4g650q2!19sChIJ91-gSwRL_RIRmFAUvUW73CM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Depot ferroviaire destination with a 3.6 rating in La Goulette?</t>
+          <t>Day Plan:
+Morning: Exploring La Goulette, starting with the picturesque La Goulette Beach for sunbathing and swimming.
+Mid-Morning: Visit the Artisanat Aschi Arts and Crafts Museum to discover traditional Tunisian handicrafts.
+Midday: Savor lunch at Restaurant STAMBALI, renowned for its delectable seafood dishes.
+Afternoon: Embark on a guided tour of the Goulette Village Harbor, offering stunning views of the Mediterranean Sea.
+Evening: Immerse yourself in the city's vibrant nightlife at White &amp; Gold Sensation, a highly-rated discotheque.
+Night: Conclude the evening with a relaxing stroll along the scenic La Goulette Plage, enjoying the cool sea breeze and soaking in the atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.
+Restaurant Waywa is a well-reviewed (4.2 stars from 39 reviews) restaurant located in La Goulette, Tunisia (36.8171268, 10.3054433). It specializes in seafood dishes and is known for its affordable prices. The restaurant is open 24 hours a day, making it a convenient option for travelers and locals alike.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10497,12 +15960,71 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Guichet de gare, Arret de train Kram is the perfect spot. With a rating of 3.7, it's a must-visit destination located at R8P8+9H2 Arret de train Kram, Av. du Parc, La Goulette. To get there, use these GPS coordinates: 36.8171992, 10.3035367.</t>
+          <t>Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Guichet de gare with GPS coordinates in La Goulette?</t>
+          <t>Day Plan:
+Morning: Explore Plage La Goulette, enjoying the scenic views and relaxing on the picturesque beach.
+Mid-Morning: Experience cultural immersion at the Artisanat Aschi, discovering the vibrant arts and crafts of Tunisia.
+Midday: Try local cuisine at Restaurant Mossli, savoring the delicious seafood specialties of the region.
+Afternoon: Take a guided tour of the Statue of Habib Bourguiba, learning about the historical significance of this iconic monument.
+Evening: Participate in the lively atmosphere at Le manoir, indulging in the vibrant nightlife scene.
+Night: Enjoy a relaxing evening at Goulette Village Harbor, taking in the picturesque views and enjoying the serene ambiance.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.
+La Mer is a restaurant in La Goulette, Tunisia, with a rating of 3.1 out of 5 based on 232 reviews. It is located at coordinates (36.8212687, 10.310061) and is open from 12:00 PM to 00:00 AM every day. The restaurant serves a variety of dishes, including seafood, couscous, and grilled meats. It also has a terrace with views of the Mediterranean Sea.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10600,13 +16122,82 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in la goulette and searching for a Gare, look into Goulette Neuve situated at Goulette Neuve, La Goulette. 
-This highly acclaimed site offers a 4.3 rating and is a place not to be missed. More details are available on their website, https://www.google.com/maps/place/Goulette+Neuve/data=!4m7!3m6!1s0x12fd4b1d82d56503:0xb3e6ebedffc33eca!8m2!3d36.8199141!4d10.3056292!16s%2Fg%2F1tg97wwm!19sChIJA2XVgh1L_RIRyj7D_-3r5rM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>What is the highly-rated Gare with a 4.3 rating that can be found in Goulette Neuve?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the quaint streets of La Goulette and soak up its charm.
+- Visit the La Goulette Ship Monument, a historical landmark with cultural significance.
+- Take a guided tour of Artisanat Aschi, an arts and crafts museum showcasing traditional Tunisian handicrafts.
+**Mid-Morning:**
+- Enjoy a delightful breakfast at Sam's Beach La Goulette, known for its warm hospitality and delicious hot chocolate.
+**Midday:**
+- Savor a traditional Tunisian seafood lunch at Restaurant Mossli, a renowned eatery for its culinary offerings.
+- Engage in outdoor activities such as swimming or sunbathing at La Goulette Plage, a popular beach destination.
+**Afternoon:**
+- Indulge in a rejuvenating spa experience at Le manoir, a bar lounge offering a relaxing ambiance.
+- Participate in shopping for local souvenirs and handicrafts at La Goulette Marche, a bustling market.
+**Evening:**
+- Experience a magical sunset while enjoying a scenic stroll along the La Goulette Corniche, a picturesque promenade.
+- Savor a memorable dinner at L'Antica Pizzeria, specializing in authentic Neapolitan-style pizzas.
+**Night:**
+- Immerse yourself in the vibrant nightlife at White &amp; Gold Sensation, a highly rated discotheque.</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.
+Chicago La Goulette is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood and meats. The restaurant is located at 2 Av. Franklin Roosevelt and is open from 12:00 to 00:00. It is closed on Sundays. The restaurant has 16 reviews and an average rating of 4.3 out of 5 stars.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10704,14 +16295,71 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a port maritime, check out Port La Goulette located at Av. Habib Bourghuiba. 
-This top-rated destination is perfect for port maritime lovers and offers a variety of categories to choose from. 
-With a rating of 3.4, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Port+La+Goulette/data=!4m7!3m6!1s0x12fd4afe1c55f7dd:0x6142abb884d982ab!8m2!3d36.8105759!4d10.303487!16s%2Fg%2F11_q3k7bn!19sChIJ3fdVHP5K_RIRq4LZhLirQmE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated port maritime with a variety of categories to choose from while exploring La Goulette?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the historic Port La Goulette, a bustling maritime hub offering stunning views of the Mediterranean.
+Mid-Morning: Immerse yourself in the captivating world of traditional Tunisian handicrafts at Artisanat Aschi Arts and Crafts Museum.
+Midday: Delight your palate with an authentic Tunisian feast at Restaurant STAMBALI, renowned for its exquisite seafood dishes.
+Afternoon: Stroll along the serene shores of La Goulette Plage, where you can bask in the sun, take a refreshing dip, or enjoy water sports.
+Evening: As the sun sets, embark on a guided tour of the iconic La Goulette Ship Monument, a testament to the town's maritime heritage.
+Night: Experience the vibrant nightlife of La Goulette at White &amp; Gold Sensation, a highly rated discotheque offering a memorable evening of music and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+L'Aquarius is a 4.5-star restaurant located in La Goulette, Tunisia. It offers a variety of seafood and meat dishes, and is known for its succulent food and excellent service. The restaurant is open from 12pm to 11pm every day, and is located at 02 bis Rte de La Goulette.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10809,12 +16457,71 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for the best ferry terminals, head to Gare Maritime La Goulette situated at Gare Maritime La Goulette. This popular destination is a must-visit for Terminal de ferry lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.8131149, 10.2989777. For more details, visit their website at https://www.google.com/maps/place/Gare+Maritime+La+Goulette/data=!4m7!3m6!1s0x12fd4afe9fc146f9:0x924a00d99219db03!8m2!3d36.8144557!4d10.2971749!16s%2Fg%2F1v6k2k0w!19sChIJ-UbBn_5K_RIRsSQwe4o7uM0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Gare Maritime La Goulette in La Goulette, known for its Terminal de ferry?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant streets of La Goulette and uncover its rich history and culture.
+Mid-Morning: Indulge in the local flavors by visiting Sam's Beach La Goulette for a delectable hot chocolate experience.
+Midday: Embark on a guided tour of the Goulette Village Harbor to witness the bustling maritime activities and admire stunning views.
+Afternoon: Unwind on the picturesque Plage La Goulette, where you can embrace the sun, take a refreshing dip, and enjoy the coastal atmosphere.
+Evening: As the day transitions, experience the vibrant nightlife at White &amp; Gold Sensation, known for its lively ambiance and a memorable party experience.
+Night: Wind down your day with a relaxing and rejuvenating spa experience at Le manoir, a luxurious 5-star bar lounge offering a serene ambiance and pampering treatments.</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Melody Café is a local café located in La Goulette, Tunisia. This café offers its customers a wide range of food options. It also has extended work hours, from 7:00 am to 11:00 pm. Melody Café is closed on Fridays and Saturdays.
+Chez FEHMI CREPES/GAUFRES is a restaurant located in la goulette, Tunisia. It is open from 17:00 to 00:00, and it is closed on no days. It is rated 5.0 out of 5 by 1 reviewer, and it offers crepes and waffles. The restaurant is located at R895+66J Chez FEHMI CREPES/GAUFRES, Av. De La Republique, La Goulette.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10908,12 +16615,71 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Gare Port La Goulette - Sud located at Gare Port La Goulette - Sud. This top-rated destination is perfect for Gare lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.8072703, 10.3075218.</t>
+          <t>Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>What top-rated destination is perfect for Gare lovers, boasting a 4.1 rating, and can be found at Gare Port La Goulette - Sud using the coordinates 36.8072703, 10.3075218?</t>
+          <t>**Day Plan:**
+**Morning:** Explore La Goulette's charming streets and soak in its rich history and culture.
+**Mid-Morning:** Visit the Artisanat Aschi Arts and Crafts Museum to discover traditional Tunisian handicrafts.
+**Midday:** Indulge in authentic Tunisian cuisine at Leblebi chez Naceur, known for its affordability and delicious food.
+**Afternoon:** Relax and enjoy the Mediterranean sun at La Goulette Plage while admiring the stunning waterfront views.
+**Evening:** Embark on a guided tour of the La Goulette Ship Monument, a renowned historical landmark that symbolizes the town's maritime heritage.
+**Night:** Experience the lively nightlife at Wet Flamingo, known for its cocktails, atmosphere, and clientele.</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).
+Leblebi chez Naceur, a restaurant located at 35 Av. Franklin Roosevelt in La Goulette, Tunisia, specializes in traditional Tunisian cuisine. With a rating of 4.5 out of 5 based on 26 reviews, it's a popular spot for locals and tourists alike. The restaurant is open from 12:00 pm to 5:00 pm and is known for its affordable prices and delicious food.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11015,12 +16781,72 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>If you're in la goulette and seeking an exciting experience, consider visiting Terminal des Croisieres - La Goulette, conveniently located at R77W+997 Terminal des Croisieres - La Goulette, La Goulette. This highly regarded location caters to Terminal de croisiere fans and offers an array of options within this category. Boasting a notable rating of 3.7, it's a destination you won't want to miss. You can reach them at 24 887 988 for any inquiries.</t>
+          <t>**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination catering to Terminal de croisiere enthusiasts with a notable rating of 3.7 in La Goulette?</t>
+          <t>Day Plan:
+Morning: Exploring La Goulette Village Harbor
+Mid-Morning: Trying local cuisine at L'antica pizzeria
+Midday: Visiting the Statue of Habib Bourguiba and enjoying scenic views
+Afternoon: Enjoying outdoor activities by La Goulette Plage beach
+Evening: Participating in a guided tour of Artisanat Aschi
+Night: Experiencing cultural immersion at White &amp; Gold Sensation</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+La Mer, located in La Goulette (lon: 10.310061, lat: 36.8212687), is a restaurant with a rating of 3.1 based on 232 reviews. It is open from 12:00-00:00 and serves a variety of dishes, including fish and couscous. Customers have praised the views from the terrace, but have also noted issues with the service and prices.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11118,12 +16944,81 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>If you're in la goulette, a top-rated destination for those who love Gare is Goulette Neuve. With a rating of 4.3, it's a must-visit spot. It is located at Goulette Neuve, La Goulette. To get there, use these GPS coordinates: 50.390652, 4.3358765.</t>
+          <t>Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>Which must-visit spot in La Goulette, boasting a 4.3 rating, is known for its appeal to Gare enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Port La Goulette, a bustling maritime gateway offering a range of facilities and amenities.
+Mid-Morning: Immerse yourself in the rich history of La Goulette by visiting the La Goulette Ship Monument, an iconic landmark that symbolizes the city's maritime heritage.
+Midday: Indulge in a delectable lunch at L'antica pizzeria, renowned for its authentic Neapolitan-style pizzas and cozy ambiance.
+Afternoon: Take a leisurely stroll through the Artisanat Aschi Arts and Crafts Museum, showcasing a diverse collection of traditional Tunisian handicrafts and offering a glimpse into the local culture.
+Evening: Head to White &amp; Gold Sensation, a highly-rated discotheque known for its unique atmosphere and energetic dance music.
+Night: Unwind and relax at Le Manoir, a sophisticated bar lounge offering an exquisite ambiance and a wide range of services, including cocktails and live music.</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.
+Angelina La Goulette Restaurant &amp; Lounge is a restaurant located at 2 Av. Franklin Roosevelt, La Goulette. It's a popular spot for locals and tourists alike, offering a variety of dishes in a relaxed and friendly atmosphere. The restaurant is open from 12:00-00:00 every day, and it's closed on Sundays.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11225,14 +17120,71 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Goulette Village Harbor located at R77V+6GF Goulette Village Harbor, village touristique port de la Goulette, La Goulette 2060. 
-This top-rated destination has a 4.5 rating and is perfect for Complexe hotelier and Compagnie de ferry lovers. 
-It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more details, visit their website at nan or call them at 71 737 610.</t>
+          <t>The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>Where can you find a 4.5-rated destination in La Goulette, perfect for those interested in Complexe hotelier and Compagnie de ferry, boasting a prime location at Goulette Village Harbor?</t>
+          <t>Day Plan:
+Morning: Explore the charming "La Goulette" tourist attraction, immersing yourself in the local life and culture.
+Mid-Morning: Visit the Artisanat Aschi Arts and Crafts Museum to discover the rich tradition of Tunisian handicrafts.
+Midday: Delight your taste buds with local cuisine at Restaurant Mossli, renowned for its exquisite seafood dishes.
+Afternoon: Relax and rejuvenate at the Goulette Village Harbor, a hotel complex with stunning sea views, offering ferry services for a unique perspective.
+Evening: Experience the vibrant nightlife at White &amp; Gold Sensation, a highly rated discotheque known for its exceptional atmosphere.
+Night: Indulge in a culinary treat at "L'antica pizzeria," specializing in authentic Neapolitan-style pizzas, making it a perfect end to a fulfilling day.</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe amine la goulette is a cafe located in la goulette, Tunisia. It is open from 09:00 to 20:00 from Monday to Saturday and is closed on Sundays. It is rated 4.5 stars on Google and has 2 reviews. It has a featured image and a facebook page. The cafe offers a variety of food and drinks, and is located at 35 Av. Habib Bourghuiba, La Goulette.
+In La goulette, on the coast of Zarzis, Tunisia, lies La goulette zarzis plage sonia. The restaurant offers a range of culinary delights and boasts a perfect rating of 5.0. The eatery is situated at the coordinates (33.5298945, 11.0882724), making it easily accessible. With a phone number of 52 610 175, reservations or inquiries can be made conveniently. The restaurant offers a warm and welcoming ambiance, perfect for a delightful dining experience.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11330,14 +17282,71 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out TGM Station Kheireddine located at R8H6+FG7 TGM Station Kheireddine, La Goulette. 
-This top-rated destination is perfect for Depot ferroviaire lovers and offers a range of Depot ferroviaire to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.8286131, 10.3133765.</t>
+          <t>TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with Depot ferroviaire in La Goulette and what are the GPS coordinates to get there?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette Port, a bustling ferry terminal offering stunning views of the Mediterranean Sea.
+Mid-Morning: Visit Artisanat Aschi, an Arts and Crafts Museum showcasing traditional Tunisian handicrafts.
+Midday: Try local cuisine at Restaurant Mossli, a highly-rated seafood restaurant serving authentic Tunisian dishes.
+Afternoon: Engage in outdoor activities at Sam's Beach La Goulette, enjoying a leisurely stroll or indulging in water sports.
+Evening: Participate in the cultural immersion at La Goulette Ship Monument, a renowned historical landmark that captures the essence of La Goulette's rich past.
+Night: Experience the vibrant nightlife at Wet Flamingo, a 4.2-star rated bar known for its excellent cocktails and lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Mazaj Cafe is a cafe located in La Goulette, Tunis, Tunisia. The cafe has a 4.1-star rating on Google and is open from 6:00 AM to 1:00 AM. Mazaj Cafe serves coffee, tea, and pastries. The cafe is located at the following coordinates: (36.823081683105, 10.30961397621).
+La Corniche is a restaurant located in La Goulette, Tunisia. Situated near the waterfront with coordinates (36.8171992, 10.3035367), the restaurant offers a dining experience with a rating of 4.3 out of 5. Its operating hours are from 11am to 11pm daily.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11435,14 +17444,77 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Goulette Port located at La Goulette Port, La Goulette. 
-This top-rated destination is perfect for Terminal de ferry lovers and offers a range of Terminal de ferry to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.8101017, 10.3059628. For more details, visit their website at https://www.google.com/maps/place/La+Goulette+Port/data=!4m7!3m6!1s0x12fd4afe17218639:0x857e46850e911b1c!8m2!3d36.810786!4d10.304034!16s%2Fg%2F11shy1q6t6!19sChIJOYYhF_5K_RIRHBuRDoVGfoU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly rated destination ideal for those who enjoy Terminal de ferry and offers a variety of options to choose from?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the picturesque La Goulette Plage, enjoying the sandy beach and azure waters.
+**Mid-Morning:**
+* Visit the historic La Goulette Ship Monument, immerse yourself in local history, and capture stunning photos.
+**Midday:**
+* Try local cuisine at the highly-rated "L'antica Pizzeria," savoring authentic Neapolitan-style pizzas and enjoying the cozy ambiance.
+**Afternoon:**
+* Engage in outdoor activities at Goulette Village Harbor, opt for a relaxing boat trip, or engage in exciting water sports.
+**Evening:**
+* Explore the vibrant Artisanat Aschi, discover traditional Tunisian handicrafts, and support local artisans.
+**Night:**
+* Experience the lively atmosphere of White &amp; Gold Sensation, a highly-rated discotheque known for its unique ambiance and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.
+Chez FEHMI CREPES/GAUFRES is a restaurant located in la goulette, Tunisia. It is open from 17:00 to 00:00, and it is closed on no days. It is rated 5.0 out of 5 by 1 reviewer, and it offers crepes and waffles. The restaurant is located at R895+66J Chez FEHMI CREPES/GAUFRES, Av. De La Republique, La Goulette.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11540,12 +17612,78 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Arret de train Kram located at R8P8+9H2 Arret de train Kram, Av. du Parc, La Goulette. This top-rated destination is perfect for Guichet de gare lovers. With a rating of 3.7, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/Arr%C3%AAt+de+train+Kram/data=!4m7!3m6!1s0x12fd4b846e7e2079:0x6421ef78ae4a7d12!8m2!3d36.835896!4d10.3163947!16s%2Fg%2F11sk7grkfy!19sChIJeSB-boRL_RIREn1KrnjvIWQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>Where can you visit a Guichet de gare-themed destination with a high rating in La Goulette?</t>
+          <t>Day Plan:
+Morning: 
+- Explore the historic landmark, "Statue of Habib Bourguiba," commemorating the first president of Tunisia. Admire its commanding presence overlooking the picturesque coastline of La Goulette.
+Mid-Morning: 
+- Visit the Artisanat Aschi, an Arts and Crafts Museum, to discover the diverse traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. 
+Midday: 
+- Tantalize your taste buds with an authentic culinary experience at "L'antica pizzeria," renowned for its delectable Neapolitan-style pizzas. Immerse yourself in the cozy ambiance.
+Afternoon: 
+- Embark on an exploration of "La Goulette Village Harbor," a hotel complex boasting stunning views of the Mediterranean Sea. Take a leisurely walk, capturing the beauty of your surroundings.
+Evening: 
+- Head to "Café REX," a cozy spot with a warm ambiance, to indulge in a variety of beverages and snacks. Engage in lively conversations with locals, soaking up the friendly atmosphere.
+Night: 
+- Experience the vibrant nightlife at "Wet Flamingo," a 4.2-star rated bar. Sip on delectable cocktails, bask in the lively ambiance, and mingle with the locals.</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.
+In La goulette, on the coast of Zarzis, Tunisia, lies La goulette zarzis plage sonia. The restaurant offers a range of culinary delights and boasts a perfect rating of 5.0. The eatery is situated at the coordinates (33.5298945, 11.0882724), making it easily accessible. With a phone number of 52 610 175, reservations or inquiries can be made conveniently. The restaurant offers a warm and welcoming ambiance, perfect for a delightful dining experience.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11643,12 +17781,71 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a place to stop by, check out La Goulette Casino located at La Goulette Casino, P9, La Goulette. This top-rated destination is perfect for Arret de bus lovers. With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.8223204, 10.3085314. For more details, visit their website at https://www.google.com/maps/place/La+Goulette+Casino/data=!4m7!3m6!1s0x12fd4b1ed41a5b89:0x29eaf8aa8404c541!8m2!3d36.8243542!4d10.3102022!16s%2Fg%2F1v13wmyd!19sChIJiVsa1B5L_RIRQcUEhKr46ik?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>What popular destination in La Goulette is a top-rated attraction for Arret de bus enthusiasts, boasting a 3.5 rating?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette by visiting La Goulette Village Harbor, a hotel complex offering breathtaking views of the Mediterranean Sea.
+Mid-Morning: Indulge in local cuisine at Restaurant STAMBALI, a 4.5-rated seafood restaurant renowned for its delectable dishes.
+Midday: Visit the La Goulette Ship Monument, a historical landmark that holds cultural significance and provides easy access to various amenities.
+Afternoon: Enjoy the picturesque beach at La Goulette, where you can relax and soak up the sun while savoring the coastal ambiance.
+Evening: Experience the lively atmosphere at White &amp; Gold Sensation, a highly rated discotheque that offers a unique and memorable night out.
+Night: Wind down the day with a relaxing walk along the scenic port, taking in the tranquil ambiance and enjoying the charming views of La Goulette.</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe amine la goulette is a cafe located in la goulette, Tunisia. It is open from 09:00 to 20:00 from Monday to Saturday and is closed on Sundays. It is rated 4.5 stars on Google and has 2 reviews. It has a featured image and a facebook page. The cafe offers a variety of food and drinks, and is located at 35 Av. Habib Bourghuiba, La Goulette.
+Angelina La Goulette Restaurant &amp; Lounge is a restaurant located at 2 Av. Franklin Roosevelt, La Goulette. It's a popular spot for locals and tourists alike, offering a variety of dishes in a relaxed and friendly atmosphere. The restaurant is open from 12:00-00:00 every day, and it's closed on Sundays.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11746,12 +17943,77 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a maritime port, check out Goulette Shiping Cruise located at Goulette Shiping Cruise, La Goulette. This top-rated destination has a rating of 5.0, making it a must-visit spot. To get there, use these GPS coordinates: 36.81825, 10.3052.</t>
+          <t>Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated maritime port with GPS coordinates 36.81825, 10.3052 in La Goulette?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the historic landmarks of La Goulette, including the La Goulette Ship Monument and the Artisanat Aschi Arts and Crafts Museum.
+**Mid-Morning:**
+- Take a leisurely walk along the picturesque beach of La Goulette, admiring the stunning coastal views.
+**Midday:**
+- Indulge in authentic local cuisine at Restaurant STAMBALI, renowned for its delicious seafood dishes.
+**Afternoon:**
+- Enjoy a rejuvenating shopping experience at La Goulette Plage, discovering a wide range of beach accessories and souvenirs.
+**Evening:**
+- Witness the vibrant nightlife at White &amp; Gold Sensation discotheque, known for its lively atmosphere and unique ambiance.
+**Night:**
+- Relax and unwind with a refreshing cocktail at Wet Flamingo, while soaking in the vibrant atmosphere and enjoying the company of locals.</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Goletta, located in La Goulette (Tunisia) with the coordinates (36.81825, 10.3052), is a highly-rated cafe with a 4.4 rating based on 21 reviews. The cafe is open from 7:00 AM to 11:00 PM and offers a range of services. Visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ for more information.
+La Corniche is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located on the waterfront, and it offers stunning views of the Mediterranean Sea. La Corniche is highly rated by its customers, and it is a popular destination for both locals and tourists.
+Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11849,14 +18111,72 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Salambo Train located at R8P8+9H2 Salambo Train, Av. du Parc, La Goulette. 
-This top-rated destination is perfect for Guichet de gare lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website at https://www.google.com/maps/place/Salambo+Train/data=!4m7!3m6!1s0x12fd4b229d68da49:0xe5e0d8a3db754efc!8m2!3d36.8358751!4d10.3164173!16s%2Fg%2F11kk1fwfmp!19sChIJSdponSJL_RIR_E5126PY4OU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination for Guichet de gare enthusiasts with a 4.0 rating in La Goulette?</t>
+          <t>Day Plan:
+Morning: Explore the quaint streets of La Goulette, soak up the local atmosphere.
+Mid-Morning: Visit the impressive Artisanat Aschi to appreciate traditional Tunisian handicrafts.
+Midday: Savor the local flavors at Restaurant Mossli, indulge in delicious seafood dishes.
+Afternoon: Laze on the picturesque La Goulette Plage, enjoy sunbathing and swimming.
+Evening: Take a guided tour of the remarkable Fort La Goulette, delve into the historical significance of this ancient fortress.
+Night: Experience La Goulette nightlife at the lively White &amp; Gold Sensation, let the music and ambiance captivate you.</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>Given these locations:
+EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.
+La Corniche is a restaurant located in La Goulette, Tunisia. Situated near the waterfront with coordinates (36.8171992, 10.3035367), the restaurant offers a dining experience with a rating of 4.3 out of 5. Its operating hours are from 11am to 11pm daily.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.
+Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.
+Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11954,14 +18274,77 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out mHT@ Hlq lwd located at 42 Rue Hedi Chaker, La Goulette. 
-This top-rated destination is perfect for Compagnie de transport ferroviaire lovers and offers a range of Compagnie de transport ferroviaire to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.81754268092, 10.301569136931.</t>
+          <t>mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly-rated destination that caters to Compagnie de transport ferroviaire enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the picturesque streets of La Goulette (Exploring La Goulette)
+**Mid-Morning:**
+- Try local cuisine at Restaurant Mossli (Trying local cuisine at Restaurant Mossli)
+**Midday:**
+- Visit the Statue of Habib Bourguiba (Visiting Statue of Habib Bourguiba)
+**Afternoon:**
+- Enjoy sunbathing and swimming at La Goulette Plage (Enjoying scenic views at La Goulette Plage)
+**Evening:**
+- Relax with a warm and welcoming atmosphere and indulge in tea and pastries at Astoria Coffee (Relaxing with tea at Astoria Coffee)
+**Night:**
+- Experience the vibrant nightlife and unique ambiance at the highly-rated White &amp; Gold Sensation (Participating in Event/Activity at White &amp; Gold Sensation)</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Lella Garbia** is a highly-rated cafe located in La Goulette with a focus on coffee and other beverages. The cafe is easily accessible and conveniently located in the heart of the city. With a 5.0 rating and positive reviews, Lella Garbia is well-received by visitors and locals alike.
+Chicago La Goulette is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood and meats. The restaurant is located at 2 Av. Franklin Roosevelt and is open from 12:00 to 00:00. It is closed on Sundays. The restaurant has 16 reviews and an average rating of 4.3 out of 5 stars.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12055,13 +18438,78 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a reliable Service de transport, check out Goulette Neuve located at R894+VF6 Goulette Neuve, Rue du Salut, La Goulette. 
-This top-rated destination with a rating of 5.0 is a must-visit spot for Service de transport lovers. To get there, use these GPS coordinates: 36.81825, 10.3052. For more details, visit their link at https://www.google.com/maps/place/Goulette+Neuve/data=!4m7!3m6!1s0x12fd4bd653d5f6c9:0xff94a1edaacb233a!8m2!3d36.8196579!4d10.3061437!16s%2Fg%2F11q2qlw9fv!19sChIJyfbVU9ZL_RIROiPLqu2hlP8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated 'Service de transport' destination located at Rue du Salut in La Goulette, accessible via the coordinates 36.81825, 10.3052?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic La Goulette Village Harbor, offering a stunning view of the Mediterranean Sea.
+**Mid-Morning:**
+* Visit the Artisanat Aschi, an Arts and Crafts Museum, to delve into Tunisian traditional crafts.
+**Midday:**
+* Try local cuisine at Restaurant Mossli, known for its delectable seafood dishes.
+**Afternoon:**
+* Enjoy a leisurely walk along La Goulette Plage, a charming beach shop, for souvenirs and local products.
+**Evening:**
+* Take a guided tour of the La Goulette Ship Monument, a renowned historical landmark.
+**Night:**
+* Experience the vibrant atmosphere at Wet Flamingo, a popular bar offering refreshing cocktails.</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe amine la goulette is a cafe located in la goulette, Tunisia. It is open from 09:00 to 20:00 from Monday to Saturday and is closed on Sundays. It is rated 4.5 stars on Google and has 2 reviews. It has a featured image and a facebook page. The cafe offers a variety of food and drinks, and is located at 35 Av. Habib Bourghuiba, La Goulette.
+**Quedamos** is a 4.5-star rated restaurant located in La Goulette, Tunis.
+With 8 reviews, Quedamos offers a cozy dining experience on Avenue Franklin Roosevelt. It opens from 11.00 AM - 11.00 PM every day and is accessible via phone at +216 29 462 516.
+Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.
+Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.
+**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.
+Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12159,14 +18607,71 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a Gare, check out Goulette Neuve located at Goulette Neuve, La Goulette. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 50.390652, 4.3358765. For more details, visit their website  or call them at .</t>
+          <t>Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>Where in La Goulette can you find a highly rated Gare destination with a diverse selection of Gare options, making it a top spot for Gare enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore La Goulette Plage, trying local cuisine at the nearby Restaurant Chez BARHOUM for an authentic dining experience.
+Mid-Morning: Visit the La Goulette Ship Monument, a renowned historical landmark, for a glimpse into the town's rich heritage and soak in the beauty of La Goulette from a panoramic view.
+Midday: Stroll through Artisanat Aschi, an Arts and Crafts Museum, to appreciate the beauty of traditional Tunisian handicrafts and support local artisans.
+Afternoon: Enjoy the vibrant atmosphere at White &amp; Gold Sensation, a highly-rated discotheque, and dance the night away, immersing yourself in the local nightlife scene.
+Evening: Take a leisurely walk along the beach at Sam's Beach La Goulette while enjoying a refreshing and sweet hot chocolate, relishing the breathtaking coastal views.
+Night: Relax at Wet Flamingo, a popular bar known for its cocktails and lively ambiance, and unwind with a drink while mingling with locals and fellow travelers.</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Baba Azizi La Goulette is a cafe located in La Goulette, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 14 Av. Habib Bourghuiba, La Goulette and can be contacted at 20 335 001.
+Restaurant Chez BARHOUM is a highly-rated restaurant located in La Goulette, Tunisia. Known for its excellent dining experience, it offers a wide range of culinary delights to satisfy even the most discerning palate. With its convenient location at coordinates (36.8275081, 10.3125504), the establishment invites patrons to immerse themselves in a gastronomic journey.
+Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.
+Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.
+Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.
+**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.
+La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.
+Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.
+La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.
+La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.
+Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.
+Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.
+Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.
+White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.
+Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).
+Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.
+Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.
+The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.
+OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.
+TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).
+La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.
+**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.
+The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.
+mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.
+Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
